--- a/mockup/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/mockup/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\gdbms_document\mockup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\iitp\gdbms_document\mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F5F46-02BC-4C3A-8614-187E18B8D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F65F23-4681-4046-A8C0-B088003C10CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="3730" windowWidth="27050" windowHeight="17680" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="38400" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="309">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1238,12 +1238,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VI-UI-02 삭제
-VI-SECH-03 추가
-VI-QURY-05 추가
-VI-QURY-06 추가
-VI-QURY-05 -&gt; VI-RELT-03 변경
-VI-FUNC-03,04 -&gt; 요구사항명 변경</t>
+    <t>Vertex, Node 선택 시 디자인 변경이 가능하다.
+Vertex 및 Edge 선택시 디자인 변경 뷰를 통해
+변경 할수 있는 디자인 항목은 색상, 크기/두께, 글씨 크기, 색상이 가능하다.
+개별,복수, 범위를 선택하여 변경 할 수 있으며,
+Vertex 기본 색상은 파란색이며, Edge는 검은색이다. 크기 기본값은 추후 정해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 변경 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Setting View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 및 query 결과가 Movie와 Actor에 관계로 검색 했을 경우 vertex기준으로 CSV를 저장
+"id","label","propery_title","propety_director","name","born"
+"v1","Movie","matrix","Wachowskis",,
+"v2","Actor",,"Keanu Charles Reeves","1964",
+edge기준으로 저장
+"id","label"
+"e1","acted_in"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV 파일은 검색결과를 Vertex와 Edge 별로 내보낼수 있으며
+해당 정보는 Label, Property정보를 포함한 형태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단 - 연결탐색기,
+왼쪽 하단(쌓이는 형태) - 속성차트뷰, 상세정보 View,
+가운데 상단은 검색 기능,
+가운데 중단 질의창, 질의 결과창,
+가운데 하단은 시각화 뷰,
+오른쪽 상단은 디자인 변경 기능 (색상 변경,글씨 관련),
+오른쪽 중단은 디자인 변경 기능 (최대 표현 개수, Text Visible 관련),
+오른쪽 하단은 Mini Map,
+모든 창은 이동이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 : VI-SECH-03, VI-QURY-05, VI-QURY-06
+삭제 : VI-UI-02 (Import메뉴), 시각화 VI-VIEW-03 삭제 및 삭제에 따른 ID값 변경(VI-VIEW-*)
+변경 : VI-QURY-05 -&gt; VI-RELT-03, VI-FUNC-03,04 - 요구사항명 변경
+VI-UI-01 - 내용 변경
+순서변경: (검색창 -&gt; 질의창 -&gt; 결과창 -&gt; 시각화 뷰) -&gt; (시각화 뷰 -&gt; 검색창 -&gt; 질의창 -&gt; 결과창)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,7 +1963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,49 +2207,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,24 +2454,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2432,23 +2477,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1279070</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>1295399</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3943394</xdr:colOff>
+      <xdr:colOff>3537940</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>3765550</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E8D18F-7888-457E-8B34-23BC52803640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6370ED5-ABCF-4244-946E-0622D8510604}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,21 +2502,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19399250" y="26117549"/>
-          <a:ext cx="3943394" cy="4197351"/>
+          <a:off x="19444606" y="25064357"/>
+          <a:ext cx="3537941" cy="4327072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2483,22 +2522,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4083050</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>25423</xdr:rowOff>
+      <xdr:colOff>4680857</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305C890F-8D4F-47E6-A3F8-A6937CB12B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854D757D-FB4D-4888-BE82-9B24D5399A81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,21 +2546,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19399250" y="22015450"/>
-          <a:ext cx="4083050" cy="457223"/>
+          <a:off x="19607893" y="23445107"/>
+          <a:ext cx="4517571" cy="312964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,17 +3181,17 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -3166,7 +3199,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="55" t="s">
         <v>167</v>
@@ -3218,7 +3251,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="51">
+    <row r="7" spans="2:6" ht="49.5">
       <c r="B7" s="67">
         <v>0.3</v>
       </c>
@@ -3235,7 +3268,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="102">
+    <row r="8" spans="2:6" ht="115.5">
       <c r="B8" s="67">
         <v>0.4</v>
       </c>
@@ -3243,7 +3276,7 @@
         <v>44515</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>171</v>
@@ -3383,7 +3416,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="70"/>
     </row>
-    <row r="28" spans="2:6" ht="17.5" thickBot="1">
+    <row r="28" spans="2:6" ht="17.25" thickBot="1">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="73"/>
@@ -3399,39 +3432,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
-  <dimension ref="B1:K68"/>
+  <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
+    <row r="1" spans="2:11" ht="31.5">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="83"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -3509,7 +3542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -3517,7 +3550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -3553,11 +3586,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="80" t="s">
         <v>180</v>
       </c>
@@ -3579,9 +3612,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="83"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="78" t="s">
         <v>181</v>
       </c>
@@ -3602,10 +3635,10 @@
       </c>
       <c r="K17" s="79"/>
     </row>
-    <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="78" t="s">
         <v>182</v>
       </c>
@@ -3627,9 +3660,9 @@
       <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="83"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="78" t="s">
         <v>183</v>
       </c>
@@ -3651,9 +3684,9 @@
       <c r="K19" s="79"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="83"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="78" t="s">
         <v>184</v>
       </c>
@@ -3675,9 +3708,9 @@
       <c r="K20" s="79"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="83"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="78" t="s">
         <v>185</v>
       </c>
@@ -3699,10 +3732,10 @@
       <c r="K21" s="79"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="78" t="s">
         <v>115</v>
       </c>
@@ -3712,8 +3745,8 @@
       <c r="F22" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>143</v>
+      <c r="G22" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -3726,14 +3759,14 @@
       </c>
       <c r="K22" s="79"/>
     </row>
-    <row r="23" spans="2:11" ht="70" customHeight="1">
-      <c r="B23" s="83" t="s">
+    <row r="23" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B23" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="78" t="s">
@@ -3757,9 +3790,9 @@
       <c r="K23" s="79"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="78" t="s">
         <v>189</v>
       </c>
@@ -3781,9 +3814,9 @@
       <c r="K24" s="79"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="78" t="s">
         <v>190</v>
       </c>
@@ -3805,9 +3838,9 @@
       <c r="K25" s="79"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="78" t="s">
@@ -3831,9 +3864,9 @@
       <c r="K26" s="79"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="78" t="s">
         <v>192</v>
       </c>
@@ -3855,9 +3888,9 @@
       <c r="K27" s="79"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="78" t="s">
         <v>193</v>
       </c>
@@ -3878,10 +3911,10 @@
       </c>
       <c r="K28" s="79"/>
     </row>
-    <row r="29" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="92" t="s">
+    <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="78" t="s">
@@ -3904,10 +3937,10 @@
       </c>
       <c r="K29" s="79"/>
     </row>
-    <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="93"/>
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="78" t="s">
         <v>195</v>
       </c>
@@ -3928,10 +3961,10 @@
       </c>
       <c r="K30" s="79"/>
     </row>
-    <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="94"/>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="78" t="s">
         <v>196</v>
       </c>
@@ -3952,10 +3985,10 @@
       </c>
       <c r="K31" s="79"/>
     </row>
-    <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="95" t="s">
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="92" t="s">
         <v>284</v>
       </c>
       <c r="E32" s="78" t="s">
@@ -3978,10 +4011,10 @@
       </c>
       <c r="K32" s="79"/>
     </row>
-    <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="94"/>
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="78" t="s">
         <v>198</v>
       </c>
@@ -4002,9 +4035,9 @@
       </c>
       <c r="K33" s="79"/>
     </row>
-    <row r="34" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
+    <row r="34" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="78" t="s">
         <v>39</v>
       </c>
@@ -4028,9 +4061,9 @@
       </c>
       <c r="K34" s="79"/>
     </row>
-    <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="83"/>
-      <c r="C35" s="84" t="s">
+    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="78" t="s">
@@ -4056,9 +4089,9 @@
       </c>
       <c r="K35" s="79"/>
     </row>
-    <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="78" t="s">
         <v>39</v>
       </c>
@@ -4082,9 +4115,9 @@
       </c>
       <c r="K36" s="79"/>
     </row>
-    <row r="37" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+    <row r="37" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="78" t="s">
         <v>45</v>
       </c>
@@ -4109,26 +4142,24 @@
       <c r="K37" s="79"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>49</v>
+      <c r="B38" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="98"/>
+      <c r="D38" s="78" t="s">
+        <v>74</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F38" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="H38" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="62">
         <v>44475</v>
@@ -4138,20 +4169,22 @@
       </c>
       <c r="K38" s="79"/>
     </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
+    <row r="39" spans="2:11" ht="49.5">
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="78" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="78" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="F39" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="78">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="3">
         <v>2</v>
       </c>
       <c r="I39" s="62">
@@ -4162,334 +4195,344 @@
       </c>
       <c r="K39" s="79"/>
     </row>
-    <row r="40" spans="2:11" ht="68">
-      <c r="B40" s="83"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84" t="s">
-        <v>31</v>
+    <row r="40" spans="2:11">
+      <c r="B40" s="101"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="78" t="s">
+        <v>285</v>
       </c>
       <c r="E40" s="78" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="F40" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>154</v>
+        <v>287</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="H40" s="3">
         <v>2</v>
       </c>
       <c r="I40" s="62">
-        <v>44475</v>
+        <v>44515</v>
       </c>
       <c r="J40" s="78" t="s">
         <v>171</v>
       </c>
       <c r="K40" s="79"/>
     </row>
-    <row r="41" spans="2:11" ht="34">
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
+    <row r="41" spans="2:11">
+      <c r="B41" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="98"/>
+      <c r="D41" s="78" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" s="78" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="F41" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="78">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="78">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="99"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="78">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="99"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="78">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="99"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="78">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="101"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="78">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="98"/>
+      <c r="D47" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="78">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="78">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="79"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="86"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="78">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G52" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3</v>
-      </c>
-      <c r="I41" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J41" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="79"/>
-    </row>
-    <row r="42" spans="2:11" ht="34">
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2</v>
-      </c>
-      <c r="I42" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J42" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="79"/>
-    </row>
-    <row r="43" spans="2:11" ht="34">
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J43" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="79"/>
-    </row>
-    <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="83"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2</v>
-      </c>
-      <c r="I44" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="79"/>
-    </row>
-    <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2</v>
-      </c>
-      <c r="I45" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J45" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="79"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="16">
-        <v>3</v>
-      </c>
-      <c r="I46" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J46" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="79"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="78">
-        <v>3</v>
-      </c>
-      <c r="I47" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J47" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K47" s="79"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H48" s="78">
-        <v>3</v>
-      </c>
-      <c r="I48" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J48" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K48" s="79"/>
-    </row>
-    <row r="49" spans="2:11" ht="34">
-      <c r="B49" s="83"/>
-      <c r="C49" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2</v>
-      </c>
-      <c r="I49" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J49" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="79"/>
-    </row>
-    <row r="50" spans="2:11" ht="34">
-      <c r="B50" s="83"/>
-      <c r="C50" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="3">
-        <v>4</v>
-      </c>
-      <c r="I50" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J50" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" s="51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="34">
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H51" s="3">
-        <v>3</v>
-      </c>
-      <c r="I51" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J51" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="52"/>
-    </row>
-    <row r="52" spans="2:11" ht="119">
-      <c r="B52" s="83"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="H52" s="3">
         <v>3</v>
@@ -4500,27 +4543,23 @@
       <c r="J52" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K52" s="52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="78" t="s">
-        <v>220</v>
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="2:11" ht="33">
+      <c r="B53" s="86"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="81" t="s">
+        <v>225</v>
       </c>
       <c r="F53" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="H53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" s="62">
         <v>44475</v>
@@ -4530,25 +4569,23 @@
       </c>
       <c r="K53" s="79"/>
     </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="157" t="s">
-        <v>294</v>
-      </c>
-      <c r="C54" s="158"/>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="78" t="s">
-        <v>254</v>
+        <v>112</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>226</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="78">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
       </c>
       <c r="I54" s="62">
         <v>44475</v>
@@ -4558,20 +4595,20 @@
       </c>
       <c r="K54" s="79"/>
     </row>
-    <row r="55" spans="2:11" ht="51">
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
+    <row r="55" spans="2:11" ht="33">
+      <c r="B55" s="86"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="78" t="s">
-        <v>257</v>
+        <v>111</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>227</v>
       </c>
       <c r="F55" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>136</v>
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="H55" s="3">
         <v>2</v>
@@ -4584,26 +4621,26 @@
       </c>
       <c r="K55" s="79"/>
     </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="161"/>
-      <c r="C56" s="162"/>
+    <row r="56" spans="2:11" ht="82.5">
+      <c r="B56" s="86"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>286</v>
+        <v>304</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>228</v>
       </c>
       <c r="F56" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>288</v>
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="H56" s="3">
         <v>2</v>
       </c>
       <c r="I56" s="62">
-        <v>44515</v>
+        <v>44475</v>
       </c>
       <c r="J56" s="78" t="s">
         <v>171</v>
@@ -4611,24 +4648,22 @@
       <c r="K56" s="79"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="157" t="s">
-        <v>267</v>
-      </c>
-      <c r="C57" s="158"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>258</v>
+        <v>85</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>229</v>
       </c>
       <c r="F57" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H57" s="78">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
       </c>
       <c r="I57" s="62">
         <v>44475</v>
@@ -4639,19 +4674,19 @@
       <c r="K57" s="79"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="159"/>
-      <c r="C58" s="160"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="78" t="s">
-        <v>259</v>
+        <v>77</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>230</v>
       </c>
       <c r="F58" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>122</v>
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="H58" s="78">
         <v>3</v>
@@ -4662,22 +4697,22 @@
       <c r="J58" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K58" s="51"/>
+      <c r="K58" s="79"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="78" t="s">
-        <v>260</v>
+        <v>77</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>231</v>
       </c>
       <c r="F59" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="H59" s="78">
         <v>3</v>
@@ -4690,128 +4725,132 @@
       </c>
       <c r="K59" s="79"/>
     </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="159"/>
-      <c r="C60" s="160"/>
+    <row r="60" spans="2:11" ht="33">
+      <c r="B60" s="86"/>
+      <c r="C60" s="78" t="s">
+        <v>56</v>
+      </c>
       <c r="D60" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="78" t="s">
-        <v>261</v>
+        <v>49</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>232</v>
       </c>
       <c r="F60" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="78">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="2:11" ht="33">
+      <c r="B61" s="86"/>
+      <c r="C61" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
         <v>4</v>
       </c>
-      <c r="I60" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J60" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="79"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="E61" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="F61" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H61" s="78">
-        <v>1</v>
-      </c>
       <c r="I61" s="62">
         <v>44475</v>
       </c>
       <c r="J61" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K61" s="79"/>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="161"/>
-      <c r="C62" s="162"/>
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="33">
+      <c r="B62" s="86"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="78" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="E62" s="78" t="s">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="F62" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H62" s="78">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
         <v>3</v>
       </c>
       <c r="I62" s="62">
-        <v>44515</v>
+        <v>44475</v>
       </c>
       <c r="J62" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K62" s="79"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="158"/>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="132">
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="78" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E63" s="78" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="F63" s="78" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="H63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" s="62">
         <v>44475</v>
       </c>
       <c r="J63" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="159"/>
-      <c r="C64" s="160"/>
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="33">
+      <c r="B64" s="86"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="78" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E64" s="78" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="F64" s="78" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="H64" s="3">
         <v>3</v>
@@ -4820,59 +4859,59 @@
         <v>44475</v>
       </c>
       <c r="J64" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="161"/>
-      <c r="C65" s="162"/>
+        <v>171</v>
+      </c>
+      <c r="K64" s="79"/>
+    </row>
+    <row r="65" spans="2:11" ht="99">
+      <c r="B65" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="87"/>
       <c r="D65" s="78" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="78" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="F65" s="78" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="H65" s="78">
         <v>1</v>
       </c>
       <c r="I65" s="62">
-        <v>44515</v>
+        <v>44475</v>
       </c>
       <c r="J65" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="102">
-      <c r="B66" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="85"/>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="33">
+      <c r="B66" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="87"/>
       <c r="D66" s="78" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E66" s="78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F66" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" s="78">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
       </c>
       <c r="I66" s="62">
         <v>44475</v>
@@ -4880,77 +4919,47 @@
       <c r="J66" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="51" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="34">
-      <c r="B67" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="F67" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="K66" s="95"/>
+    </row>
+    <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
         <v>3</v>
       </c>
-      <c r="I67" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J67" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="81"/>
-    </row>
-    <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B68" s="86"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="H68" s="53">
-        <v>3</v>
-      </c>
-      <c r="I68" s="64">
-        <v>44475</v>
-      </c>
-      <c r="J68" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="K68" s="82"/>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="B54:C56"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="B63:C65"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B16:D21"/>
     <mergeCell ref="B22:C22"/>
@@ -4977,33 +4986,33 @@
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
+    <row r="1" spans="2:11" ht="31.5">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="83"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -5081,7 +5090,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -5125,11 +5134,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="41" t="s">
         <v>180</v>
       </c>
@@ -5151,9 +5160,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="83"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="40" t="s">
         <v>181</v>
       </c>
@@ -5174,10 +5183,10 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="40" t="s">
         <v>182</v>
       </c>
@@ -5199,9 +5208,9 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="83"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="40" t="s">
         <v>183</v>
       </c>
@@ -5223,9 +5232,9 @@
       <c r="K19" s="60"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="83"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="40" t="s">
         <v>184</v>
       </c>
@@ -5247,9 +5256,9 @@
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="83"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="40" t="s">
         <v>185</v>
       </c>
@@ -5271,10 +5280,10 @@
       <c r="K21" s="60"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="40" t="s">
         <v>115</v>
       </c>
@@ -5298,9 +5307,9 @@
       </c>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="85"/>
+    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="40" t="s">
         <v>270</v>
       </c>
@@ -5324,14 +5333,14 @@
       </c>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="83" t="s">
+    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -5355,9 +5364,9 @@
       <c r="K24" s="60"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="40" t="s">
         <v>189</v>
       </c>
@@ -5379,9 +5388,9 @@
       <c r="K25" s="60"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="40" t="s">
         <v>190</v>
       </c>
@@ -5403,9 +5412,9 @@
       <c r="K26" s="60"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -5429,9 +5438,9 @@
       <c r="K27" s="60"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="40" t="s">
         <v>192</v>
       </c>
@@ -5453,9 +5462,9 @@
       <c r="K28" s="60"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="40" t="s">
         <v>193</v>
       </c>
@@ -5476,10 +5485,10 @@
       </c>
       <c r="K29" s="60"/>
     </row>
-    <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="92" t="s">
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -5502,10 +5511,10 @@
       </c>
       <c r="K30" s="60"/>
     </row>
-    <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="93"/>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="40" t="s">
         <v>195</v>
       </c>
@@ -5526,10 +5535,10 @@
       </c>
       <c r="K31" s="60"/>
     </row>
-    <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="94"/>
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="40" t="s">
         <v>196</v>
       </c>
@@ -5550,10 +5559,10 @@
       </c>
       <c r="K32" s="60"/>
     </row>
-    <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="95" t="s">
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="92" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -5576,10 +5585,10 @@
       </c>
       <c r="K33" s="60"/>
     </row>
-    <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="94"/>
+    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="40" t="s">
         <v>198</v>
       </c>
@@ -5600,9 +5609,9 @@
       </c>
       <c r="K34" s="60"/>
     </row>
-    <row r="35" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
@@ -5626,9 +5635,9 @@
       </c>
       <c r="K35" s="60"/>
     </row>
-    <row r="36" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84" t="s">
+    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -5654,9 +5663,9 @@
       </c>
       <c r="K36" s="60"/>
     </row>
-    <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
@@ -5680,9 +5689,9 @@
       </c>
       <c r="K37" s="60"/>
     </row>
-    <row r="38" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
+    <row r="38" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B38" s="86"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
@@ -5707,13 +5716,13 @@
       <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -5737,9 +5746,9 @@
       <c r="K39" s="60"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="83"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="40" t="s">
         <v>223</v>
       </c>
@@ -5760,10 +5769,10 @@
       </c>
       <c r="K40" s="60"/>
     </row>
-    <row r="41" spans="2:11" ht="68">
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84" t="s">
+    <row r="41" spans="2:11" ht="66">
+      <c r="B41" s="86"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -5786,10 +5795,10 @@
       </c>
       <c r="K41" s="60"/>
     </row>
-    <row r="42" spans="2:11" ht="34">
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
+    <row r="42" spans="2:11" ht="33">
+      <c r="B42" s="86"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="40" t="s">
         <v>225</v>
       </c>
@@ -5810,10 +5819,10 @@
       </c>
       <c r="K42" s="60"/>
     </row>
-    <row r="43" spans="2:11" ht="34">
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
+    <row r="43" spans="2:11" ht="33">
+      <c r="B43" s="86"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
       <c r="E43" s="40" t="s">
         <v>226</v>
       </c>
@@ -5834,9 +5843,9 @@
       </c>
       <c r="K43" s="60"/>
     </row>
-    <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="83"/>
-      <c r="C44" s="84"/>
+    <row r="44" spans="2:11" ht="33">
+      <c r="B44" s="86"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="40" t="s">
         <v>112</v>
       </c>
@@ -5860,9 +5869,9 @@
       </c>
       <c r="K44" s="60"/>
     </row>
-    <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
+    <row r="45" spans="2:11" ht="33">
+      <c r="B45" s="86"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="40" t="s">
         <v>111</v>
       </c>
@@ -5886,9 +5895,9 @@
       </c>
       <c r="K45" s="60"/>
     </row>
-    <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
+    <row r="46" spans="2:11" ht="33">
+      <c r="B46" s="86"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="40" t="s">
         <v>107</v>
       </c>
@@ -5913,8 +5922,8 @@
       <c r="K46" s="60"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="40" t="s">
         <v>85</v>
       </c>
@@ -5939,8 +5948,8 @@
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="40" t="s">
         <v>77</v>
       </c>
@@ -5965,8 +5974,8 @@
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="83"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
@@ -5990,8 +5999,8 @@
       </c>
       <c r="K49" s="60"/>
     </row>
-    <row r="50" spans="2:11" ht="34">
-      <c r="B50" s="83"/>
+    <row r="50" spans="2:11" ht="33">
+      <c r="B50" s="86"/>
       <c r="C50" s="40" t="s">
         <v>56</v>
       </c>
@@ -6018,9 +6027,9 @@
       </c>
       <c r="K50" s="60"/>
     </row>
-    <row r="51" spans="2:11" ht="34">
-      <c r="B51" s="83"/>
-      <c r="C51" s="84" t="s">
+    <row r="51" spans="2:11" ht="33">
+      <c r="B51" s="86"/>
+      <c r="C51" s="88" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -6048,9 +6057,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="83"/>
-      <c r="C52" s="84"/>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
@@ -6074,9 +6083,9 @@
       </c>
       <c r="K52" s="52"/>
     </row>
-    <row r="53" spans="2:11" ht="119">
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
+    <row r="53" spans="2:11" ht="132">
+      <c r="B53" s="86"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="40" t="s">
         <v>39</v>
       </c>
@@ -6102,9 +6111,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="40" t="s">
         <v>39</v>
       </c>
@@ -6129,7 +6138,7 @@
       <c r="K54" s="60"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -6161,7 +6170,7 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="83"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="40" t="s">
         <v>278</v>
       </c>
@@ -6191,10 +6200,10 @@
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="85"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="40" t="s">
         <v>74</v>
       </c>
@@ -6218,9 +6227,9 @@
       </c>
       <c r="K57" s="60"/>
     </row>
-    <row r="58" spans="2:11" ht="51">
-      <c r="B58" s="83"/>
-      <c r="C58" s="85"/>
+    <row r="58" spans="2:11" ht="49.5">
+      <c r="B58" s="86"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="40" t="s">
         <v>75</v>
       </c>
@@ -6245,7 +6254,7 @@
       <c r="K58" s="60"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="86" t="s">
         <v>267</v>
       </c>
       <c r="C59" s="40" t="s">
@@ -6275,8 +6284,8 @@
       <c r="K59" s="60"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="83"/>
-      <c r="C60" s="84" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="88" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -6303,8 +6312,8 @@
       <c r="K60" s="51"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="83"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="40" t="s">
         <v>118</v>
       </c>
@@ -6329,7 +6338,7 @@
       <c r="K61" s="60"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="83"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="40" t="s">
         <v>124</v>
       </c>
@@ -6357,7 +6366,7 @@
       <c r="K62" s="60"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="83"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="40" t="s">
         <v>276</v>
       </c>
@@ -6386,11 +6395,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="102">
-      <c r="B64" s="83" t="s">
+    <row r="64" spans="2:11" ht="99">
+      <c r="B64" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="40" t="s">
         <v>30</v>
       </c>
@@ -6416,11 +6425,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="34">
-      <c r="B65" s="83" t="s">
+    <row r="65" spans="2:11" ht="33">
+      <c r="B65" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="85"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="40" t="s">
         <v>137</v>
       </c>
@@ -6442,11 +6451,11 @@
       <c r="J65" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="81"/>
-    </row>
-    <row r="66" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B66" s="86"/>
-      <c r="C66" s="87"/>
+      <c r="K65" s="95"/>
+    </row>
+    <row r="66" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="53" t="s">
         <v>75</v>
       </c>
@@ -6468,7 +6477,7 @@
       <c r="J66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="82"/>
+      <c r="K66" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6510,33 +6519,33 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30">
+    <row r="1" spans="2:11" ht="31.5">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="83"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -6614,7 +6623,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -6658,11 +6667,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="35" t="s">
         <v>180</v>
       </c>
@@ -6684,9 +6693,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="83"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="36" t="s">
         <v>181</v>
       </c>
@@ -6707,10 +6716,10 @@
       </c>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="2:11" ht="42.65" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="36" t="s">
         <v>182</v>
       </c>
@@ -6732,9 +6741,9 @@
       <c r="K18" s="50"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="83"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="36" t="s">
         <v>183</v>
       </c>
@@ -6756,9 +6765,9 @@
       <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="83"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="36" t="s">
         <v>184</v>
       </c>
@@ -6780,9 +6789,9 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="83"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="36" t="s">
         <v>185</v>
       </c>
@@ -6804,10 +6813,10 @@
       <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="36" t="s">
         <v>115</v>
       </c>
@@ -6831,9 +6840,9 @@
       </c>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="2:11" ht="82" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="85"/>
+    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="36" t="s">
         <v>270</v>
       </c>
@@ -6857,14 +6866,14 @@
       </c>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="2:11" ht="70" customHeight="1">
-      <c r="B24" s="83" t="s">
+    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -6888,9 +6897,9 @@
       <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="36" t="s">
         <v>189</v>
       </c>
@@ -6912,9 +6921,9 @@
       <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="36" t="s">
         <v>190</v>
       </c>
@@ -6936,9 +6945,9 @@
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="36" t="s">
@@ -6962,9 +6971,9 @@
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="36" t="s">
         <v>192</v>
       </c>
@@ -6986,9 +6995,9 @@
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="36" t="s">
         <v>193</v>
       </c>
@@ -7009,10 +7018,10 @@
       </c>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84" t="s">
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="36" t="s">
@@ -7035,10 +7044,10 @@
       </c>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="36" t="s">
         <v>195</v>
       </c>
@@ -7059,10 +7068,10 @@
       </c>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="36" t="s">
         <v>196</v>
       </c>
@@ -7083,10 +7092,10 @@
       </c>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="36" t="s">
         <v>197</v>
       </c>
@@ -7107,10 +7116,10 @@
       </c>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
+    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="36" t="s">
         <v>198</v>
       </c>
@@ -7131,10 +7140,10 @@
       </c>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84" t="s">
+    <row r="35" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -7157,10 +7166,10 @@
       </c>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="2:11" ht="38.5" customHeight="1">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
+    <row r="36" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="36" t="s">
         <v>200</v>
       </c>
@@ -7181,10 +7190,10 @@
       </c>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
+    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="36" t="s">
         <v>201</v>
       </c>
@@ -7205,9 +7214,9 @@
       </c>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B38" s="83"/>
-      <c r="C38" s="84" t="s">
+    <row r="38" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B38" s="86"/>
+      <c r="C38" s="88" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -7233,9 +7242,9 @@
       </c>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="2:11" ht="39.65" customHeight="1">
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
+    <row r="39" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B39" s="86"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
@@ -7259,9 +7268,9 @@
       </c>
       <c r="K39" s="50"/>
     </row>
-    <row r="40" spans="2:11" ht="56.15" customHeight="1">
-      <c r="B40" s="83"/>
-      <c r="C40" s="84"/>
+    <row r="40" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B40" s="86"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="36" t="s">
         <v>45</v>
       </c>
@@ -7286,13 +7295,13 @@
       <c r="K40" s="50"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="88" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -7316,9 +7325,9 @@
       <c r="K41" s="50"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="36" t="s">
         <v>223</v>
       </c>
@@ -7339,10 +7348,10 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="2:11" ht="68">
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84" t="s">
+    <row r="43" spans="2:11" ht="66">
+      <c r="B43" s="86"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -7365,10 +7374,10 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="2:11" ht="34">
-      <c r="B44" s="83"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
+    <row r="44" spans="2:11" ht="33">
+      <c r="B44" s="86"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="36" t="s">
         <v>225</v>
       </c>
@@ -7389,10 +7398,10 @@
       </c>
       <c r="K44" s="50"/>
     </row>
-    <row r="45" spans="2:11" ht="34">
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
+    <row r="45" spans="2:11" ht="33">
+      <c r="B45" s="86"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
       <c r="E45" s="36" t="s">
         <v>226</v>
       </c>
@@ -7413,9 +7422,9 @@
       </c>
       <c r="K45" s="50"/>
     </row>
-    <row r="46" spans="2:11" ht="34">
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
+    <row r="46" spans="2:11" ht="33">
+      <c r="B46" s="86"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="36" t="s">
         <v>112</v>
       </c>
@@ -7439,9 +7448,9 @@
       </c>
       <c r="K46" s="50"/>
     </row>
-    <row r="47" spans="2:11" ht="34">
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
+    <row r="47" spans="2:11" ht="33">
+      <c r="B47" s="86"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="36" t="s">
         <v>111</v>
       </c>
@@ -7465,9 +7474,9 @@
       </c>
       <c r="K47" s="50"/>
     </row>
-    <row r="48" spans="2:11" ht="34">
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
+    <row r="48" spans="2:11" ht="33">
+      <c r="B48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="36" t="s">
         <v>107</v>
       </c>
@@ -7492,8 +7501,8 @@
       <c r="K48" s="50"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="83"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="36" t="s">
         <v>85</v>
       </c>
@@ -7518,8 +7527,8 @@
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="36" t="s">
         <v>77</v>
       </c>
@@ -7544,8 +7553,8 @@
       <c r="K50" s="50"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="36" t="s">
         <v>77</v>
       </c>
@@ -7569,8 +7578,8 @@
       </c>
       <c r="K51" s="50"/>
     </row>
-    <row r="52" spans="2:11" ht="34">
-      <c r="B52" s="83"/>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
       <c r="C52" s="36" t="s">
         <v>56</v>
       </c>
@@ -7597,9 +7606,9 @@
       </c>
       <c r="K52" s="50"/>
     </row>
-    <row r="53" spans="2:11" ht="34">
-      <c r="B53" s="83"/>
-      <c r="C53" s="84" t="s">
+    <row r="53" spans="2:11" ht="33">
+      <c r="B53" s="86"/>
+      <c r="C53" s="88" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -7627,9 +7636,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="34">
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
@@ -7653,9 +7662,9 @@
       </c>
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="2:11" ht="119">
-      <c r="B55" s="83"/>
-      <c r="C55" s="84"/>
+    <row r="55" spans="2:11" ht="132">
+      <c r="B55" s="86"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="36" t="s">
         <v>39</v>
       </c>
@@ -7681,9 +7690,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="34">
-      <c r="B56" s="83"/>
-      <c r="C56" s="84"/>
+    <row r="56" spans="2:11" ht="33">
+      <c r="B56" s="86"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="36" t="s">
         <v>39</v>
       </c>
@@ -7708,7 +7717,7 @@
       <c r="K56" s="50"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -7740,7 +7749,7 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="83"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="36" t="s">
         <v>132</v>
       </c>
@@ -7770,10 +7779,10 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="85"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="36" t="s">
         <v>74</v>
       </c>
@@ -7797,9 +7806,9 @@
       </c>
       <c r="K59" s="50"/>
     </row>
-    <row r="60" spans="2:11" ht="51">
-      <c r="B60" s="83"/>
-      <c r="C60" s="85"/>
+    <row r="60" spans="2:11" ht="49.5">
+      <c r="B60" s="86"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="36" t="s">
         <v>75</v>
       </c>
@@ -7824,7 +7833,7 @@
       <c r="K60" s="50"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="86" t="s">
         <v>267</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -7854,8 +7863,8 @@
       <c r="K61" s="50"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="83"/>
-      <c r="C62" s="84" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="88" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -7882,8 +7891,8 @@
       <c r="K62" s="51"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="36" t="s">
         <v>118</v>
       </c>
@@ -7908,7 +7917,7 @@
       <c r="K63" s="50"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="83"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="36" t="s">
         <v>124</v>
       </c>
@@ -7936,7 +7945,7 @@
       <c r="K64" s="50"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="83"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="36" t="s">
         <v>131</v>
       </c>
@@ -7963,11 +7972,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="102">
-      <c r="B66" s="83" t="s">
+    <row r="66" spans="2:11" ht="99">
+      <c r="B66" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="85"/>
+      <c r="C66" s="87"/>
       <c r="D66" s="36" t="s">
         <v>30</v>
       </c>
@@ -7993,11 +8002,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="34">
-      <c r="B67" s="83" t="s">
+    <row r="67" spans="2:11" ht="33">
+      <c r="B67" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="C67" s="85"/>
+      <c r="C67" s="87"/>
       <c r="D67" s="36" t="s">
         <v>137</v>
       </c>
@@ -8019,11 +8028,11 @@
       <c r="J67" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="81"/>
-    </row>
-    <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
-      <c r="B68" s="86"/>
-      <c r="C68" s="87"/>
+      <c r="K67" s="95"/>
+    </row>
+    <row r="68" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B68" s="93"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="53" t="s">
         <v>75</v>
       </c>
@@ -8045,7 +8054,7 @@
       <c r="J68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="82"/>
+      <c r="K68" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8087,15 +8096,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="101.75" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8126,11 +8135,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -8146,9 +8155,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -8163,10 +8172,10 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="42.65" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+    <row r="5" spans="1:8" ht="42.6" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -8182,9 +8191,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -8200,9 +8209,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="109"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -8218,9 +8227,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -8236,10 +8245,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="118"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -8257,9 +8266,9 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="82" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
+    <row r="10" spans="1:8" ht="81.95" customHeight="1">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -8277,14 +8286,14 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="70" customHeight="1">
-      <c r="A11" s="118" t="s">
+    <row r="11" spans="1:8" ht="69.95" customHeight="1">
+      <c r="A11" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="88" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -8302,9 +8311,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="118"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
@@ -8320,9 +8329,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="118"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
       </c>
@@ -8338,9 +8347,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="118"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="92" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="89" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -8358,9 +8367,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="118"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
       </c>
@@ -8376,9 +8385,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="118"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
       </c>
@@ -8393,10 +8402,10 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A17" s="118"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="92" t="s">
+    <row r="17" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A17" s="125"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="89" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -8413,10 +8422,10 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="93"/>
+    <row r="18" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A18" s="125"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
@@ -8431,10 +8440,10 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="93"/>
+    <row r="19" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
@@ -8449,10 +8458,10 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="93"/>
+    <row r="20" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A20" s="125"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
       </c>
@@ -8467,10 +8476,10 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A21" s="118"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="94"/>
+    <row r="21" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
       </c>
@@ -8485,10 +8494,10 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="92" t="s">
+    <row r="22" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A22" s="125"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="89" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -8505,10 +8514,10 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A23" s="118"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="93"/>
+    <row r="23" spans="1:8" ht="38.450000000000003" customHeight="1">
+      <c r="A23" s="125"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
       </c>
@@ -8523,10 +8532,10 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="94"/>
+    <row r="24" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A24" s="125"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
       </c>
@@ -8541,9 +8550,9 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A25" s="118"/>
-      <c r="B25" s="92" t="s">
+    <row r="25" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A25" s="125"/>
+      <c r="B25" s="89" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -8563,9 +8572,9 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="39.65" customHeight="1">
-      <c r="A26" s="118"/>
-      <c r="B26" s="93"/>
+    <row r="26" spans="1:8" ht="39.6" customHeight="1">
+      <c r="A26" s="125"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -8583,9 +8592,9 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="56.15" customHeight="1">
-      <c r="A27" s="118"/>
-      <c r="B27" s="94"/>
+    <row r="27" spans="1:8" ht="56.1" customHeight="1">
+      <c r="A27" s="125"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
@@ -8604,13 +8613,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="89" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -8628,9 +8637,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="102"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="30" t="s">
         <v>206</v>
       </c>
@@ -8645,10 +8654,10 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="68">
-      <c r="A30" s="102"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="92" t="s">
+    <row r="30" spans="1:8" ht="66">
+      <c r="A30" s="109"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="89" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -8665,10 +8674,10 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="34">
-      <c r="A31" s="102"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
+    <row r="31" spans="1:8" ht="33">
+      <c r="A31" s="109"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="30" t="s">
         <v>208</v>
       </c>
@@ -8683,10 +8692,10 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="34">
-      <c r="A32" s="102"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
+    <row r="32" spans="1:8" ht="33">
+      <c r="A32" s="109"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="30" t="s">
         <v>209</v>
       </c>
@@ -8701,9 +8710,9 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="34">
-      <c r="A33" s="102"/>
-      <c r="B33" s="93"/>
+    <row r="33" spans="1:8" ht="33">
+      <c r="A33" s="109"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
@@ -8721,9 +8730,9 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="34">
-      <c r="A34" s="102"/>
-      <c r="B34" s="93"/>
+    <row r="34" spans="1:8" ht="33">
+      <c r="A34" s="109"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
@@ -8741,9 +8750,9 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="34">
-      <c r="A35" s="102"/>
-      <c r="B35" s="93"/>
+    <row r="35" spans="1:8" ht="33">
+      <c r="A35" s="109"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
@@ -8762,8 +8771,8 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="102"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
@@ -8782,8 +8791,8 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="102"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -8802,8 +8811,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="102"/>
-      <c r="B38" s="94"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
@@ -8821,8 +8830,8 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="34">
-      <c r="A39" s="102"/>
+    <row r="39" spans="1:8" ht="33">
+      <c r="A39" s="109"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -8843,9 +8852,9 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="34">
-      <c r="A40" s="102"/>
-      <c r="B40" s="92" t="s">
+    <row r="40" spans="1:8" ht="33">
+      <c r="A40" s="109"/>
+      <c r="B40" s="89" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -8867,9 +8876,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="34">
-      <c r="A41" s="102"/>
-      <c r="B41" s="93"/>
+    <row r="41" spans="1:8" ht="33">
+      <c r="A41" s="109"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -8887,9 +8896,9 @@
       </c>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="119">
-      <c r="A42" s="102"/>
-      <c r="B42" s="93"/>
+    <row r="42" spans="1:8" ht="132">
+      <c r="A42" s="109"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
@@ -8909,9 +8918,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34">
-      <c r="A43" s="103"/>
-      <c r="B43" s="94"/>
+    <row r="43" spans="1:8" ht="33">
+      <c r="A43" s="110"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -8930,7 +8939,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="103" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -8956,7 +8965,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="98"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -8980,10 +8989,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="97"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -9001,9 +9010,9 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="51">
-      <c r="A47" s="98"/>
-      <c r="B47" s="99"/>
+    <row r="47" spans="1:8" ht="49.5">
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -9022,7 +9031,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="103" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -9046,8 +9055,8 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="100"/>
-      <c r="B49" s="84" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="88" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -9068,8 +9077,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="100"/>
-      <c r="B50" s="84"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -9088,7 +9097,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="100"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -9110,7 +9119,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="98"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -9131,11 +9140,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="102">
-      <c r="A53" s="104" t="s">
+    <row r="53" spans="1:8" ht="99">
+      <c r="A53" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="105"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -9155,11 +9164,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="34">
-      <c r="A54" s="96" t="s">
+    <row r="54" spans="1:8" ht="33">
+      <c r="A54" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="97"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -9175,11 +9184,11 @@
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="92"/>
-    </row>
-    <row r="55" spans="1:8" ht="301" customHeight="1">
-      <c r="A55" s="98"/>
-      <c r="B55" s="99"/>
+      <c r="H54" s="89"/>
+    </row>
+    <row r="55" spans="1:8" ht="300.95" customHeight="1">
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -9195,7 +9204,7 @@
       <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="94"/>
+      <c r="H55" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9236,7 +9245,7 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -9244,158 +9253,158 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="150" t="s">
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="151"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="145" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="146"/>
+      <c r="J4" s="153"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="146"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="153"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="146"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="153"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="121"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="146"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="146"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="153"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="146"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="153"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="121"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="146"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="153"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="121"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="142" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="146"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="153"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="17.149999999999999" customHeight="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122"/>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -9404,14 +9413,14 @@
       <c r="H12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="147"/>
-      <c r="J12" s="146"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="153"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -9420,210 +9429,210 @@
       <c r="H13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="147"/>
-      <c r="J13" s="146"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="153"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="135"/>
+      <c r="B14" s="142"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="146"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="153"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="146"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="146"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="153"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="146"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="153"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="154" t="s">
+      <c r="A19" s="143"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="161" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="140" t="s">
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="141"/>
+      <c r="J19" s="148"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="136"/>
-      <c r="B26" s="137"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="138"/>
-      <c r="B27" s="139"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>

--- a/mockup/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/mockup/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\iitp\gdbms_document\mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F65F23-4681-4046-A8C0-B088003C10CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A4C27-C946-42C0-A40C-9614B41B6417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
-    <sheet name="v0.4" sheetId="7" r:id="rId2"/>
-    <sheet name="v0.3" sheetId="6" r:id="rId3"/>
-    <sheet name="v0.2" sheetId="5" r:id="rId4"/>
-    <sheet name="v0.1" sheetId="2" r:id="rId5"/>
-    <sheet name="UI" sheetId="3" r:id="rId6"/>
+    <sheet name="v0.5" sheetId="8" r:id="rId2"/>
+    <sheet name="v0.4" sheetId="7" r:id="rId3"/>
+    <sheet name="v0.3" sheetId="6" r:id="rId4"/>
+    <sheet name="v0.2" sheetId="5" r:id="rId5"/>
+    <sheet name="v0.1" sheetId="2" r:id="rId6"/>
+    <sheet name="UI" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="310">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,6 +1287,10 @@
 변경 : VI-QURY-05 -&gt; VI-RELT-03, VI-FUNC-03,04 - 요구사항명 변경
 VI-UI-01 - 내용 변경
 순서변경: (검색창 -&gt; 질의창 -&gt; 결과창 -&gt; 시각화 뷰) -&gt; (시각화 뷰 -&gt; 검색창 -&gt; 질의창 -&gt; 결과창)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 변경 : 검색 -&gt; 변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1963,7 +1968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2213,6 +2218,57 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2222,15 +2278,6 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,35 +2290,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2301,45 +2357,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,6 +2491,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1279070</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3537940</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4063B6-3216-4F03-897E-43D972750D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19424195" y="25241250"/>
+          <a:ext cx="3535220" cy="4320268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4680857</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F713C-77D3-4565-B65E-CCB53AFE6A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19584761" y="23619278"/>
+          <a:ext cx="4517571" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2566,7 +2676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2671,7 +2781,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2776,7 +2886,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3181,7 +3291,7 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3284,9 +3394,15 @@
       <c r="F8" s="68"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="67"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44519</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="E9" s="31"/>
       <c r="F9" s="68"/>
     </row>
@@ -3431,11 +3547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94F1E-AEAC-412C-924D-C2896C7D07BA}">
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3461,10 +3577,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -3554,7 +3670,7 @@
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="82" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -3586,27 +3702,27 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="80" t="s">
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="84" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="84">
         <v>1</v>
       </c>
       <c r="I16" s="62">
         <v>44475</v>
       </c>
-      <c r="J16" s="80" t="s">
+      <c r="J16" s="84" t="s">
         <v>171</v>
       </c>
       <c r="K16" s="63"/>
@@ -3615,34 +3731,34 @@
       <c r="B17" s="86"/>
       <c r="C17" s="87"/>
       <c r="D17" s="87"/>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="83" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="83">
         <v>1</v>
       </c>
       <c r="I17" s="62">
         <v>44475</v>
       </c>
-      <c r="J17" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="79"/>
+      <c r="J17" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="2:11" ht="42.6" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="83" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -3654,67 +3770,67 @@
       <c r="I18" s="62">
         <v>44475</v>
       </c>
-      <c r="J18" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="79"/>
+      <c r="J18" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="85"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
       <c r="D19" s="87"/>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="83" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="83">
         <v>1</v>
       </c>
       <c r="I19" s="62">
         <v>44475</v>
       </c>
-      <c r="J19" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="79"/>
+      <c r="J19" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="86"/>
       <c r="C20" s="87"/>
       <c r="D20" s="87"/>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="83" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="83">
         <v>1</v>
       </c>
       <c r="I20" s="62">
         <v>44475</v>
       </c>
-      <c r="J20" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="79"/>
+      <c r="J20" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="85"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="86"/>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="F21" s="83" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="59" t="s">
@@ -3726,23 +3842,23 @@
       <c r="I21" s="62">
         <v>44475</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="K21" s="79"/>
+      <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" ht="165" customHeight="1">
       <c r="B22" s="86" t="s">
         <v>252</v>
       </c>
       <c r="C22" s="87"/>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="83" t="s">
         <v>110</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -3754,25 +3870,25 @@
       <c r="I22" s="62">
         <v>44475</v>
       </c>
-      <c r="J22" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="79"/>
+      <c r="J22" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:11" ht="69.95" customHeight="1">
       <c r="B23" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="83" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -3784,114 +3900,114 @@
       <c r="I23" s="62">
         <v>44475</v>
       </c>
-      <c r="J23" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="79"/>
+      <c r="J23" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="85"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="86"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="78" t="s">
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="F24" s="83" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="83">
         <v>1</v>
       </c>
       <c r="I24" s="62">
         <v>44475</v>
       </c>
-      <c r="J24" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="79"/>
+      <c r="J24" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="85"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="78" t="s">
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="83" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="83">
         <v>1</v>
       </c>
       <c r="I25" s="62">
         <v>44475</v>
       </c>
-      <c r="J25" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="79"/>
+      <c r="J25" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="86"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="83" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="83">
         <v>1</v>
       </c>
       <c r="I26" s="62">
         <v>44475</v>
       </c>
-      <c r="J26" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="79"/>
+      <c r="J26" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="85"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="86"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="78" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="83" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="83">
         <v>1</v>
       </c>
       <c r="I27" s="62">
         <v>44475</v>
       </c>
-      <c r="J27" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="79"/>
+      <c r="J27" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="85"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="86"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="78" t="s">
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="83" t="s">
         <v>193</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -3906,21 +4022,21 @@
       <c r="I28" s="62">
         <v>44475</v>
       </c>
-      <c r="J28" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="79"/>
+      <c r="J28" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="85"/>
     </row>
     <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B29" s="86"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="83" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -3932,19 +4048,19 @@
       <c r="I29" s="62">
         <v>44475</v>
       </c>
-      <c r="J29" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="79"/>
+      <c r="J29" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="85"/>
     </row>
     <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B30" s="86"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="78" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="83" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -3956,16 +4072,16 @@
       <c r="I30" s="62">
         <v>44475</v>
       </c>
-      <c r="J30" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="79"/>
+      <c r="J30" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="85"/>
     </row>
     <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="78" t="s">
+      <c r="C31" s="98"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="83" t="s">
         <v>196</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -3980,18 +4096,18 @@
       <c r="I31" s="62">
         <v>44475</v>
       </c>
-      <c r="J31" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="79"/>
+      <c r="J31" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="85"/>
     </row>
     <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="92" t="s">
+      <c r="C32" s="98"/>
+      <c r="D32" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="83" t="s">
         <v>197</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -4006,42 +4122,42 @@
       <c r="I32" s="62">
         <v>44475</v>
       </c>
-      <c r="J32" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="79"/>
+      <c r="J32" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="85"/>
     </row>
     <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="78" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="83" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="78">
+      <c r="H33" s="83">
         <v>1</v>
       </c>
       <c r="I33" s="62">
         <v>44475</v>
       </c>
-      <c r="J33" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="79"/>
+      <c r="J33" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="85"/>
     </row>
     <row r="34" spans="2:11" ht="39.6" customHeight="1">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="78" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="83" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -4056,23 +4172,23 @@
       <c r="I34" s="62">
         <v>44475</v>
       </c>
-      <c r="J34" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="79"/>
+      <c r="J34" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="85"/>
     </row>
     <row r="35" spans="2:11" ht="39.6" customHeight="1">
       <c r="B35" s="86"/>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -4084,21 +4200,21 @@
       <c r="I35" s="62">
         <v>44475</v>
       </c>
-      <c r="J35" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="79"/>
+      <c r="J35" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="85"/>
     </row>
     <row r="36" spans="2:11" ht="39.6" customHeight="1">
       <c r="B36" s="86"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="98"/>
+      <c r="D36" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="83" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -4110,21 +4226,21 @@
       <c r="I36" s="62">
         <v>44475</v>
       </c>
-      <c r="J36" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="79"/>
+      <c r="J36" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="85"/>
     </row>
     <row r="37" spans="2:11" ht="56.1" customHeight="1">
       <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="78" t="s">
+      <c r="C37" s="98"/>
+      <c r="D37" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="83" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -4136,49 +4252,49 @@
       <c r="I37" s="62">
         <v>44475</v>
       </c>
-      <c r="J37" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="79"/>
+      <c r="J37" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="85"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="78" t="s">
+      <c r="C38" s="93"/>
+      <c r="D38" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="83" t="s">
         <v>72</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="78">
+      <c r="H38" s="83">
         <v>2</v>
       </c>
       <c r="I38" s="62">
         <v>44475</v>
       </c>
-      <c r="J38" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="79"/>
+      <c r="J38" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="85"/>
     </row>
     <row r="39" spans="2:11" ht="49.5">
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="78" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="83" t="s">
         <v>73</v>
       </c>
       <c r="G39" s="11" t="s">
@@ -4190,21 +4306,21 @@
       <c r="I39" s="62">
         <v>44475</v>
       </c>
-      <c r="J39" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="79"/>
+      <c r="J39" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="85"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="78" t="s">
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="83" t="s">
         <v>287</v>
       </c>
       <c r="G40" s="11" t="s">
@@ -4216,181 +4332,181 @@
       <c r="I40" s="62">
         <v>44515</v>
       </c>
-      <c r="J40" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="79"/>
+      <c r="J40" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="85"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="78" t="s">
+      <c r="C41" s="93"/>
+      <c r="D41" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="78" t="s">
+      <c r="F41" s="83" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="78">
+      <c r="H41" s="83">
         <v>1</v>
       </c>
       <c r="I41" s="62">
         <v>44475</v>
       </c>
-      <c r="J41" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="79"/>
+      <c r="J41" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="85"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="78" t="s">
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="83" t="s">
         <v>121</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="78">
+      <c r="H42" s="83">
         <v>3</v>
       </c>
       <c r="I42" s="62">
         <v>44475</v>
       </c>
-      <c r="J42" s="78" t="s">
+      <c r="J42" s="83" t="s">
         <v>171</v>
       </c>
       <c r="K42" s="51"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="78" t="s">
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="83" t="s">
         <v>120</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="78">
+      <c r="H43" s="83">
         <v>3</v>
       </c>
       <c r="I43" s="62">
         <v>44475</v>
       </c>
-      <c r="J43" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="79"/>
+      <c r="J43" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="85"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="78" t="s">
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="F44" s="78" t="s">
+      <c r="F44" s="83" t="s">
         <v>126</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="78">
+      <c r="H44" s="83">
         <v>4</v>
       </c>
       <c r="I44" s="62">
         <v>44475</v>
       </c>
-      <c r="J44" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="79"/>
+      <c r="J44" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="85"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="78" t="s">
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="83" t="s">
         <v>292</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H45" s="78">
+      <c r="H45" s="83">
         <v>1</v>
       </c>
       <c r="I45" s="62">
         <v>44475</v>
       </c>
-      <c r="J45" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="79"/>
+      <c r="J45" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="85"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="78" t="s">
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F46" s="78" t="s">
+      <c r="F46" s="83" t="s">
         <v>291</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="78">
+      <c r="H46" s="83">
         <v>3</v>
       </c>
       <c r="I46" s="62">
         <v>44515</v>
       </c>
-      <c r="J46" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="79"/>
+      <c r="J46" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="85"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="78" t="s">
+      <c r="C47" s="93"/>
+      <c r="D47" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="78" t="s">
+      <c r="F47" s="83" t="s">
         <v>130</v>
       </c>
       <c r="G47" s="11" t="s">
@@ -4402,23 +4518,23 @@
       <c r="I47" s="62">
         <v>44475</v>
       </c>
-      <c r="J47" s="78" t="s">
+      <c r="J47" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="K47" s="79" t="s">
+      <c r="K47" s="85" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="99"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="78" t="s">
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="F48" s="78" t="s">
+      <c r="F48" s="83" t="s">
         <v>133</v>
       </c>
       <c r="G48" s="11" t="s">
@@ -4430,38 +4546,38 @@
       <c r="I48" s="62">
         <v>44475</v>
       </c>
-      <c r="J48" s="78" t="s">
+      <c r="J48" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="K48" s="79" t="s">
+      <c r="K48" s="85" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="78" t="s">
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="83" t="s">
         <v>289</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H49" s="78">
+      <c r="H49" s="83">
         <v>1</v>
       </c>
       <c r="I49" s="62">
         <v>44515</v>
       </c>
-      <c r="J49" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="79" t="s">
+      <c r="J49" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="85" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4469,66 +4585,66 @@
       <c r="B50" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="88" t="s">
+      <c r="C50" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="78" t="s">
+      <c r="F50" s="83" t="s">
         <v>103</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="78">
+      <c r="H50" s="83">
         <v>1</v>
       </c>
       <c r="I50" s="62">
         <v>44475</v>
       </c>
-      <c r="J50" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="79"/>
+      <c r="J50" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="85"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="81" t="s">
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="83" t="s">
         <v>82</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H51" s="78">
+      <c r="H51" s="83">
         <v>2</v>
       </c>
       <c r="I51" s="62">
         <v>44475</v>
       </c>
-      <c r="J51" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="79"/>
+      <c r="J51" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="85"/>
     </row>
     <row r="52" spans="2:11" ht="33">
       <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88" t="s">
+      <c r="C52" s="98"/>
+      <c r="D52" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="83" t="s">
         <v>104</v>
       </c>
       <c r="G52" s="15" t="s">
@@ -4540,19 +4656,19 @@
       <c r="I52" s="62">
         <v>44475</v>
       </c>
-      <c r="J52" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="79"/>
+      <c r="J52" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="85"/>
     </row>
     <row r="53" spans="2:11" ht="33">
       <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="81" t="s">
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="78" t="s">
+      <c r="F53" s="83" t="s">
         <v>92</v>
       </c>
       <c r="G53" s="15" t="s">
@@ -4564,21 +4680,21 @@
       <c r="I53" s="62">
         <v>44475</v>
       </c>
-      <c r="J53" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="79"/>
+      <c r="J53" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="85"/>
     </row>
     <row r="54" spans="2:11" ht="33">
       <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="78" t="s">
+      <c r="C54" s="98"/>
+      <c r="D54" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="F54" s="78" t="s">
+      <c r="F54" s="83" t="s">
         <v>88</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -4590,21 +4706,21 @@
       <c r="I54" s="62">
         <v>44475</v>
       </c>
-      <c r="J54" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="79"/>
+      <c r="J54" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="85"/>
     </row>
     <row r="55" spans="2:11" ht="33">
       <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="78" t="s">
+      <c r="C55" s="98"/>
+      <c r="D55" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="F55" s="78" t="s">
+      <c r="F55" s="83" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="15" t="s">
@@ -4616,21 +4732,21 @@
       <c r="I55" s="62">
         <v>44475</v>
       </c>
-      <c r="J55" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" s="79"/>
+      <c r="J55" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="85"/>
     </row>
     <row r="56" spans="2:11" ht="82.5">
       <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="78" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="81" t="s">
+      <c r="E56" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="F56" s="78" t="s">
+      <c r="F56" s="83" t="s">
         <v>303</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -4642,21 +4758,21 @@
       <c r="I56" s="62">
         <v>44475</v>
       </c>
-      <c r="J56" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K56" s="79"/>
+      <c r="J56" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="85"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="86"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="78" t="s">
+      <c r="C57" s="98"/>
+      <c r="D57" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="81" t="s">
+      <c r="E57" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="78" t="s">
+      <c r="F57" s="83" t="s">
         <v>80</v>
       </c>
       <c r="G57" s="29" t="s">
@@ -4668,75 +4784,75 @@
       <c r="I57" s="62">
         <v>44475</v>
       </c>
-      <c r="J57" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" s="79"/>
+      <c r="J57" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="85"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="86"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="78" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="78" t="s">
+      <c r="F58" s="83" t="s">
         <v>81</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H58" s="78">
+      <c r="H58" s="83">
         <v>3</v>
       </c>
       <c r="I58" s="62">
         <v>44475</v>
       </c>
-      <c r="J58" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" s="79"/>
+      <c r="J58" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="85"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="86"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="78" t="s">
+      <c r="C59" s="98"/>
+      <c r="D59" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="81" t="s">
+      <c r="E59" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="F59" s="78" t="s">
+      <c r="F59" s="83" t="s">
         <v>105</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="78">
+      <c r="H59" s="83">
         <v>3</v>
       </c>
       <c r="I59" s="62">
         <v>44475</v>
       </c>
-      <c r="J59" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K59" s="79"/>
+      <c r="J59" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="85"/>
     </row>
     <row r="60" spans="2:11" ht="33">
       <c r="B60" s="86"/>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="F60" s="78" t="s">
+      <c r="F60" s="83" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -4748,23 +4864,23 @@
       <c r="I60" s="62">
         <v>44475</v>
       </c>
-      <c r="J60" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="79"/>
+      <c r="J60" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="85"/>
     </row>
     <row r="61" spans="2:11" ht="33">
       <c r="B61" s="86"/>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="78" t="s">
+      <c r="E61" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="F61" s="78" t="s">
+      <c r="F61" s="83" t="s">
         <v>57</v>
       </c>
       <c r="G61" s="11" t="s">
@@ -4776,7 +4892,7 @@
       <c r="I61" s="62">
         <v>44475</v>
       </c>
-      <c r="J61" s="78" t="s">
+      <c r="J61" s="83" t="s">
         <v>173</v>
       </c>
       <c r="K61" s="51" t="s">
@@ -4785,14 +4901,14 @@
     </row>
     <row r="62" spans="2:11" ht="33">
       <c r="B62" s="86"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="78" t="s">
+      <c r="C62" s="98"/>
+      <c r="D62" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="78" t="s">
+      <c r="E62" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="F62" s="78" t="s">
+      <c r="F62" s="83" t="s">
         <v>299</v>
       </c>
       <c r="G62" s="11" t="s">
@@ -4804,21 +4920,21 @@
       <c r="I62" s="62">
         <v>44475</v>
       </c>
-      <c r="J62" s="78" t="s">
+      <c r="J62" s="83" t="s">
         <v>171</v>
       </c>
       <c r="K62" s="52"/>
     </row>
     <row r="63" spans="2:11" ht="132">
       <c r="B63" s="86"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="78" t="s">
+      <c r="C63" s="98"/>
+      <c r="D63" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="78" t="s">
+      <c r="E63" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="F63" s="78" t="s">
+      <c r="F63" s="83" t="s">
         <v>300</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -4830,7 +4946,7 @@
       <c r="I63" s="62">
         <v>44475</v>
       </c>
-      <c r="J63" s="78" t="s">
+      <c r="J63" s="83" t="s">
         <v>171</v>
       </c>
       <c r="K63" s="52" t="s">
@@ -4839,14 +4955,14 @@
     </row>
     <row r="64" spans="2:11" ht="33">
       <c r="B64" s="86"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="78" t="s">
+      <c r="C64" s="98"/>
+      <c r="D64" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="78" t="s">
+      <c r="E64" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="78" t="s">
+      <c r="F64" s="83" t="s">
         <v>58</v>
       </c>
       <c r="G64" s="11" t="s">
@@ -4858,35 +4974,35 @@
       <c r="I64" s="62">
         <v>44475</v>
       </c>
-      <c r="J64" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K64" s="79"/>
+      <c r="J64" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="85"/>
     </row>
     <row r="65" spans="2:11" ht="99">
       <c r="B65" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="87"/>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="78" t="s">
+      <c r="E65" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="F65" s="78" t="s">
+      <c r="F65" s="83" t="s">
         <v>65</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H65" s="78">
+      <c r="H65" s="83">
         <v>1</v>
       </c>
       <c r="I65" s="62">
         <v>44475</v>
       </c>
-      <c r="J65" s="78" t="s">
+      <c r="J65" s="83" t="s">
         <v>171</v>
       </c>
       <c r="K65" s="51" t="s">
@@ -4898,13 +5014,13 @@
         <v>268</v>
       </c>
       <c r="C66" s="87"/>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="78" t="s">
+      <c r="E66" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="F66" s="78" t="s">
+      <c r="F66" s="83" t="s">
         <v>61</v>
       </c>
       <c r="G66" s="11" t="s">
@@ -4916,14 +5032,14 @@
       <c r="I66" s="62">
         <v>44475</v>
       </c>
-      <c r="J66" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" s="95"/>
+      <c r="J66" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="90"/>
     </row>
     <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="53" t="s">
         <v>75</v>
       </c>
@@ -4945,7 +5061,7 @@
       <c r="J67" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="96"/>
+      <c r="K67" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4979,6 +5095,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="31.5">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="100"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="80">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="78">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="79"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="79"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="79"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="78">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="79"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="79"/>
+    </row>
+    <row r="23" spans="2:11" ht="69.95" customHeight="1">
+      <c r="B23" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="79"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="86"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="78">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="79"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="86"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="78">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="86"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="78">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="79"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="86"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="78">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="79"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="86"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="79"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B29" s="86"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="79"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="79"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="78">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="79"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="79"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="79"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.1" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="93"/>
+      <c r="D38" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="78">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="2:11" ht="49.5">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="78">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="78">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="78">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="78">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="78">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="78">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="78">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="78">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="79"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="86"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="78">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="2:11" ht="33">
+      <c r="B52" s="86"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="2:11" ht="33">
+      <c r="B53" s="86"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="79"/>
+    </row>
+    <row r="54" spans="2:11" ht="33">
+      <c r="B54" s="86"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="79"/>
+    </row>
+    <row r="55" spans="2:11" ht="33">
+      <c r="B55" s="86"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="79"/>
+    </row>
+    <row r="56" spans="2:11" ht="82.5">
+      <c r="B56" s="86"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="79"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="86"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="79"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="86"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="78">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="79"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="86"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="78">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="79"/>
+    </row>
+    <row r="60" spans="2:11" ht="33">
+      <c r="B60" s="86"/>
+      <c r="C60" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="2:11" ht="33">
+      <c r="B61" s="86"/>
+      <c r="C61" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="33">
+      <c r="B62" s="86"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="132">
+      <c r="B63" s="86"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="33">
+      <c r="B64" s="86"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="79"/>
+    </row>
+    <row r="65" spans="2:11" ht="99">
+      <c r="B65" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="33">
+      <c r="B66" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="87"/>
+      <c r="D66" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="90"/>
+    </row>
+    <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
   <dimension ref="B1:K66"/>
   <sheetViews>
@@ -5009,10 +6673,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -5134,11 +6798,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="41" t="s">
         <v>180</v>
       </c>
@@ -5337,10 +7001,10 @@
       <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="40" t="s">
@@ -5365,8 +7029,8 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="40" t="s">
         <v>189</v>
       </c>
@@ -5389,8 +7053,8 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="86"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="40" t="s">
         <v>190</v>
       </c>
@@ -5413,8 +7077,8 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="86"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="98" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="40" t="s">
@@ -5439,8 +7103,8 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="86"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="40" t="s">
         <v>192</v>
       </c>
@@ -5463,8 +7127,8 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="86"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="40" t="s">
         <v>193</v>
       </c>
@@ -5487,8 +7151,8 @@
     </row>
     <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B30" s="86"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="103" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="40" t="s">
@@ -5513,8 +7177,8 @@
     </row>
     <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="90"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="40" t="s">
         <v>195</v>
       </c>
@@ -5537,8 +7201,8 @@
     </row>
     <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="91"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="40" t="s">
         <v>196</v>
       </c>
@@ -5561,8 +7225,8 @@
     </row>
     <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="92" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="106" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -5587,8 +7251,8 @@
     </row>
     <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="91"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="40" t="s">
         <v>198</v>
       </c>
@@ -5611,7 +7275,7 @@
     </row>
     <row r="35" spans="2:11" ht="39.6" customHeight="1">
       <c r="B35" s="86"/>
-      <c r="C35" s="88"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="76" t="s">
         <v>39</v>
       </c>
@@ -5637,7 +7301,7 @@
     </row>
     <row r="36" spans="2:11" ht="39.6" customHeight="1">
       <c r="B36" s="86"/>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="98" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -5665,7 +7329,7 @@
     </row>
     <row r="37" spans="2:11" ht="39.6" customHeight="1">
       <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
@@ -5691,7 +7355,7 @@
     </row>
     <row r="38" spans="2:11" ht="56.1" customHeight="1">
       <c r="B38" s="86"/>
-      <c r="C38" s="88"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
@@ -5719,10 +7383,10 @@
       <c r="B39" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -5747,8 +7411,8 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="86"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="40" t="s">
         <v>223</v>
       </c>
@@ -5771,8 +7435,8 @@
     </row>
     <row r="41" spans="2:11" ht="66">
       <c r="B41" s="86"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88" t="s">
+      <c r="C41" s="98"/>
+      <c r="D41" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -5797,8 +7461,8 @@
     </row>
     <row r="42" spans="2:11" ht="33">
       <c r="B42" s="86"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="40" t="s">
         <v>225</v>
       </c>
@@ -5821,8 +7485,8 @@
     </row>
     <row r="43" spans="2:11" ht="33">
       <c r="B43" s="86"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="40" t="s">
         <v>226</v>
       </c>
@@ -5845,7 +7509,7 @@
     </row>
     <row r="44" spans="2:11" ht="33">
       <c r="B44" s="86"/>
-      <c r="C44" s="88"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="40" t="s">
         <v>112</v>
       </c>
@@ -5871,7 +7535,7 @@
     </row>
     <row r="45" spans="2:11" ht="33">
       <c r="B45" s="86"/>
-      <c r="C45" s="88"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="40" t="s">
         <v>111</v>
       </c>
@@ -5897,7 +7561,7 @@
     </row>
     <row r="46" spans="2:11" ht="33">
       <c r="B46" s="86"/>
-      <c r="C46" s="88"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="40" t="s">
         <v>107</v>
       </c>
@@ -5923,7 +7587,7 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="86"/>
-      <c r="C47" s="88"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="40" t="s">
         <v>85</v>
       </c>
@@ -5949,7 +7613,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="86"/>
-      <c r="C48" s="88"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="40" t="s">
         <v>77</v>
       </c>
@@ -5975,7 +7639,7 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="40" t="s">
         <v>77</v>
       </c>
@@ -6029,7 +7693,7 @@
     </row>
     <row r="51" spans="2:11" ht="33">
       <c r="B51" s="86"/>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="98" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -6059,7 +7723,7 @@
     </row>
     <row r="52" spans="2:11" ht="33">
       <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
@@ -6085,7 +7749,7 @@
     </row>
     <row r="53" spans="2:11" ht="132">
       <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="40" t="s">
         <v>39</v>
       </c>
@@ -6113,7 +7777,7 @@
     </row>
     <row r="54" spans="2:11" ht="33">
       <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="40" t="s">
         <v>39</v>
       </c>
@@ -6285,7 +7949,7 @@
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="86"/>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="40" t="s">
@@ -6313,7 +7977,7 @@
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="40" t="s">
         <v>118</v>
       </c>
@@ -6451,11 +8115,11 @@
       <c r="J65" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="95"/>
+      <c r="K65" s="90"/>
     </row>
     <row r="66" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="53" t="s">
         <v>75</v>
       </c>
@@ -6477,20 +8141,10 @@
       <c r="J66" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="96"/>
+      <c r="K66" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:B38"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="B39:B54"/>
     <mergeCell ref="C39:C49"/>
@@ -6503,6 +8157,16 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C66"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6511,7 +8175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD3A42-6A7E-4449-A6C1-52E221A53C86}">
   <dimension ref="B1:K68"/>
   <sheetViews>
@@ -6542,10 +8206,10 @@
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44" t="s">
@@ -6667,11 +8331,11 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="35" t="s">
         <v>180</v>
       </c>
@@ -6870,10 +8534,10 @@
       <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -6898,8 +8562,8 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="86"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="36" t="s">
         <v>189</v>
       </c>
@@ -6922,8 +8586,8 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="86"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="36" t="s">
         <v>190</v>
       </c>
@@ -6946,8 +8610,8 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="86"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="98" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="36" t="s">
@@ -6972,8 +8636,8 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="86"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="36" t="s">
         <v>192</v>
       </c>
@@ -6996,8 +8660,8 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="86"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="36" t="s">
         <v>193</v>
       </c>
@@ -7020,8 +8684,8 @@
     </row>
     <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B30" s="86"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="36" t="s">
@@ -7046,8 +8710,8 @@
     </row>
     <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B31" s="86"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="36" t="s">
         <v>195</v>
       </c>
@@ -7070,8 +8734,8 @@
     </row>
     <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B32" s="86"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="36" t="s">
         <v>196</v>
       </c>
@@ -7094,8 +8758,8 @@
     </row>
     <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B33" s="86"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="36" t="s">
         <v>197</v>
       </c>
@@ -7118,8 +8782,8 @@
     </row>
     <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B34" s="86"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="36" t="s">
         <v>198</v>
       </c>
@@ -7142,8 +8806,8 @@
     </row>
     <row r="35" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B35" s="86"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88" t="s">
+      <c r="C35" s="98"/>
+      <c r="D35" s="98" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="36" t="s">
@@ -7168,8 +8832,8 @@
     </row>
     <row r="36" spans="2:11" ht="38.450000000000003" customHeight="1">
       <c r="B36" s="86"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="36" t="s">
         <v>200</v>
       </c>
@@ -7192,8 +8856,8 @@
     </row>
     <row r="37" spans="2:11" ht="39.6" customHeight="1">
       <c r="B37" s="86"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="36" t="s">
         <v>201</v>
       </c>
@@ -7216,7 +8880,7 @@
     </row>
     <row r="38" spans="2:11" ht="39.6" customHeight="1">
       <c r="B38" s="86"/>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="98" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="36" t="s">
@@ -7244,7 +8908,7 @@
     </row>
     <row r="39" spans="2:11" ht="39.6" customHeight="1">
       <c r="B39" s="86"/>
-      <c r="C39" s="88"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
@@ -7270,7 +8934,7 @@
     </row>
     <row r="40" spans="2:11" ht="56.1" customHeight="1">
       <c r="B40" s="86"/>
-      <c r="C40" s="88"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="36" t="s">
         <v>45</v>
       </c>
@@ -7298,10 +8962,10 @@
       <c r="B41" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="98" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -7326,8 +8990,8 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="86"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="36" t="s">
         <v>223</v>
       </c>
@@ -7350,8 +9014,8 @@
     </row>
     <row r="43" spans="2:11" ht="66">
       <c r="B43" s="86"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88" t="s">
+      <c r="C43" s="98"/>
+      <c r="D43" s="98" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="36" t="s">
@@ -7376,8 +9040,8 @@
     </row>
     <row r="44" spans="2:11" ht="33">
       <c r="B44" s="86"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="36" t="s">
         <v>225</v>
       </c>
@@ -7400,8 +9064,8 @@
     </row>
     <row r="45" spans="2:11" ht="33">
       <c r="B45" s="86"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="36" t="s">
         <v>226</v>
       </c>
@@ -7424,7 +9088,7 @@
     </row>
     <row r="46" spans="2:11" ht="33">
       <c r="B46" s="86"/>
-      <c r="C46" s="88"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="36" t="s">
         <v>112</v>
       </c>
@@ -7450,7 +9114,7 @@
     </row>
     <row r="47" spans="2:11" ht="33">
       <c r="B47" s="86"/>
-      <c r="C47" s="88"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="36" t="s">
         <v>111</v>
       </c>
@@ -7476,7 +9140,7 @@
     </row>
     <row r="48" spans="2:11" ht="33">
       <c r="B48" s="86"/>
-      <c r="C48" s="88"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="36" t="s">
         <v>107</v>
       </c>
@@ -7502,7 +9166,7 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="36" t="s">
         <v>85</v>
       </c>
@@ -7528,7 +9192,7 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="86"/>
-      <c r="C50" s="88"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="36" t="s">
         <v>77</v>
       </c>
@@ -7554,7 +9218,7 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="36" t="s">
         <v>77</v>
       </c>
@@ -7608,7 +9272,7 @@
     </row>
     <row r="53" spans="2:11" ht="33">
       <c r="B53" s="86"/>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="98" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -7638,7 +9302,7 @@
     </row>
     <row r="54" spans="2:11" ht="33">
       <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="36" t="s">
         <v>39</v>
       </c>
@@ -7664,7 +9328,7 @@
     </row>
     <row r="55" spans="2:11" ht="132">
       <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="36" t="s">
         <v>39</v>
       </c>
@@ -7692,7 +9356,7 @@
     </row>
     <row r="56" spans="2:11" ht="33">
       <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="36" t="s">
         <v>39</v>
       </c>
@@ -7864,7 +9528,7 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="86"/>
-      <c r="C62" s="88" t="s">
+      <c r="C62" s="98" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="36" t="s">
@@ -7892,7 +9556,7 @@
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="86"/>
-      <c r="C63" s="88"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="36" t="s">
         <v>118</v>
       </c>
@@ -8028,11 +9692,11 @@
       <c r="J67" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="K67" s="95"/>
+      <c r="K67" s="90"/>
     </row>
     <row r="68" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="53" t="s">
         <v>75</v>
       </c>
@@ -8054,10 +9718,20 @@
       <c r="J68" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="K68" s="96"/>
+      <c r="K68" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B41:B56"/>
@@ -8070,16 +9744,6 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8088,7 +9752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F09C0-156E-4DA5-A577-69CE2AAC7D43}">
   <dimension ref="A2:H55"/>
   <sheetViews>
@@ -8135,11 +9799,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
+      <c r="A3" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -8155,9 +9819,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -8173,9 +9837,9 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="42.6" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -8191,9 +9855,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -8209,9 +9873,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -8227,9 +9891,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -8245,10 +9909,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="125"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -8267,8 +9931,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="81.95" customHeight="1">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -8287,13 +9951,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="69.95" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="98" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -8311,9 +9975,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="125"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
@@ -8329,9 +9993,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="125"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="88"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
       </c>
@@ -8347,9 +10011,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="125"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="89" t="s">
+      <c r="A14" s="119"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="103" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -8367,9 +10031,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="125"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
       </c>
@@ -8385,9 +10049,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="125"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
       </c>
@@ -8403,9 +10067,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="89" t="s">
+      <c r="A17" s="119"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -8423,9 +10087,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
       </c>
@@ -8441,9 +10105,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="90"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
@@ -8459,9 +10123,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="90"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
       </c>
@@ -8477,9 +10141,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
       </c>
@@ -8495,9 +10159,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="89" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="103" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -8515,9 +10179,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
       </c>
@@ -8533,9 +10197,9 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
       </c>
@@ -8551,8 +10215,8 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="89" t="s">
+      <c r="A25" s="119"/>
+      <c r="B25" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -8573,8 +10237,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="90"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -8593,8 +10257,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="56.1" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
@@ -8613,13 +10277,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="103" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -8637,9 +10301,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="109"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="30" t="s">
         <v>206</v>
       </c>
@@ -8655,9 +10319,9 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="66">
-      <c r="A30" s="109"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="89" t="s">
+      <c r="A30" s="126"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -8675,9 +10339,9 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="33">
-      <c r="A31" s="109"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="30" t="s">
         <v>208</v>
       </c>
@@ -8693,9 +10357,9 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="33">
-      <c r="A32" s="109"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="30" t="s">
         <v>209</v>
       </c>
@@ -8711,8 +10375,8 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="109"/>
-      <c r="B33" s="90"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
       </c>
@@ -8731,8 +10395,8 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="109"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
@@ -8751,8 +10415,8 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="109"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
       </c>
@@ -8771,8 +10435,8 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="109"/>
-      <c r="B36" s="90"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
@@ -8791,8 +10455,8 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="109"/>
-      <c r="B37" s="90"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -8811,8 +10475,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="109"/>
-      <c r="B38" s="91"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="105"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
@@ -8831,7 +10495,7 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="109"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -8853,8 +10517,8 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="33">
-      <c r="A40" s="109"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="103" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -8877,8 +10541,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="109"/>
-      <c r="B41" s="90"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -8897,8 +10561,8 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" ht="132">
-      <c r="A42" s="109"/>
-      <c r="B42" s="90"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
@@ -8919,8 +10583,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="110"/>
-      <c r="B43" s="91"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="105"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
@@ -8939,7 +10603,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="120" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -8965,7 +10629,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="105"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -8989,10 +10653,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="104"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -9011,8 +10675,8 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="49.5">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -9031,7 +10695,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="120" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -9055,8 +10719,8 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="107"/>
-      <c r="B49" s="88" t="s">
+      <c r="A49" s="124"/>
+      <c r="B49" s="98" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -9077,8 +10741,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="107"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -9097,7 +10761,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="107"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -9119,7 +10783,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="105"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -9141,10 +10805,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="99">
-      <c r="A53" s="111" t="s">
+      <c r="A53" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="112"/>
+      <c r="B53" s="129"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -9165,10 +10829,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="33">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="104"/>
+      <c r="B54" s="121"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -9184,11 +10848,11 @@
       <c r="G54" s="3">
         <v>3</v>
       </c>
-      <c r="H54" s="89"/>
+      <c r="H54" s="103"/>
     </row>
     <row r="55" spans="1:8" ht="300.95" customHeight="1">
-      <c r="A55" s="105"/>
-      <c r="B55" s="106"/>
+      <c r="A55" s="122"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -9204,19 +10868,10 @@
       <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="91"/>
+      <c r="H55" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A3:C8"/>
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A54:B55"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="H54:H55"/>
@@ -9229,6 +10884,15 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A3:C8"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9237,7 +10901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A756F41A-28DD-4412-A372-3C92ED27208E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -9253,158 +10917,158 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="157" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="158"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="160"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="152" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="153"/>
+      <c r="J4" s="157"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="153"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="157"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="153"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="157"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="153"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="157"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="153"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="157"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="153"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="153"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="157"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="149" t="s">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="157"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -9413,14 +11077,14 @@
       <c r="H12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="154"/>
-      <c r="J12" s="153"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -9429,210 +11093,210 @@
       <c r="H13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="154"/>
-      <c r="J13" s="153"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="142"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="153"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="153"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="157"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="153"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="157"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="143"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="153"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="157"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="143"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="156"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="161" t="s">
+      <c r="A19" s="147"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="147" t="s">
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="148"/>
+      <c r="J19" s="152"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="143"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="147"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>

--- a/mockup/GDBMS_시각화도구_요구사항_정의서.xlsx
+++ b/mockup/GDBMS_시각화도구_요구사항_정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\iitp\gdbms_document\mockup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\gdbms_document\mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A4C27-C946-42C0-A40C-9614B41B6417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97557A40-7E67-4E34-AF42-8CA3844368D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
+    <workbookView xWindow="5670" yWindow="2480" windowWidth="28800" windowHeight="15500" xr2:uid="{D4D23831-249D-452D-B775-52F4450CD322}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="318">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1290,7 +1290,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능 변경 : 검색 -&gt; 변환</t>
+    <t>왼쪽 상단 – 연결탐색기 (Dbeaver 기본)
+왼쪽 하단 – 프로젝트 View (Dbeaver 기본)
+오른쪽 상단은 변환 기능, 질의창, output 창, Log창이 한 묶음이다.
+상단에서 변환 기능은 상단에 위치하고 질의창은 하단에 위치한다.
+OutputView와 LogView은 질의창 오른쪽에 표시되며, 활성화 비활성화가 가능하다.
+오른쪽 하단은 시각화View, TableView, PlanView, Properties, ChartView, 다지인, 설정 View가 한 묶음이다,
+하단에서 왼쪽에 시각화View와 TableView, PlanView가 위치하며 
+하단에서 오른쪽은 Properties, ChartView, 디자인, 설정이 위치한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 변환창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 Vertex, properties, edge 중에서 Text를 질의로 변환 할 수 있는 기능을 제공한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex ,Properties, edge 중 단일, 복수선택하여 해당 범위 내에서만 Text를 질의로 변환하는 기능을 제공한다. _x000B_(DEFAULT : Vertex only)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox에 Text를 입력 후에 실행 버튼을 누르면 질의창에 변환한 질의가 입력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 위치 관련 내용 변경 (DBeaver UI 관련)
+기능 변경 : 검색 -&gt; 질의변환 (기능 변경에 따른 질의 변환 내용 변경)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2290,6 +2330,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2327,36 +2397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,17 +3331,17 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.08203125" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -3309,7 +3349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:6" ht="17.5" thickBot="1"/>
     <row r="4" spans="2:6" ht="18" thickBot="1">
       <c r="B4" s="55" t="s">
         <v>167</v>
@@ -3361,7 +3401,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="49.5">
+    <row r="7" spans="2:6" ht="51">
       <c r="B7" s="67">
         <v>0.3</v>
       </c>
@@ -3378,7 +3418,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="115.5">
+    <row r="8" spans="2:6" ht="119">
       <c r="B8" s="67">
         <v>0.4</v>
       </c>
@@ -3391,24 +3431,30 @@
       <c r="E8" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="68"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="F8" s="68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34">
       <c r="B9" s="67">
         <v>0.5</v>
       </c>
       <c r="C9" s="42">
-        <v>44519</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="68"/>
+        <v>44533</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="67"/>
-      <c r="C10" s="31"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
       <c r="F10" s="68"/>
@@ -3532,7 +3578,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="70"/>
     </row>
-    <row r="28" spans="2:6" ht="17.25" thickBot="1">
+    <row r="28" spans="2:6" ht="17.5" thickBot="1">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="73"/>
@@ -3550,30 +3596,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94F1E-AEAC-412C-924D-C2896C7D07BA}">
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
+    <row r="1" spans="2:11" ht="30">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
@@ -3658,7 +3704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -3666,7 +3712,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -3751,7 +3797,7 @@
       </c>
       <c r="K17" s="85"/>
     </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -3862,7 +3908,7 @@
         <v>110</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -3875,7 +3921,7 @@
       </c>
       <c r="K22" s="85"/>
     </row>
-    <row r="23" spans="2:11" ht="69.95" customHeight="1">
+    <row r="23" spans="2:11" ht="70" customHeight="1">
       <c r="B23" s="86" t="s">
         <v>11</v>
       </c>
@@ -4027,7 +4073,7 @@
       </c>
       <c r="K28" s="85"/>
     </row>
-    <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
       <c r="B29" s="86"/>
       <c r="C29" s="98"/>
       <c r="D29" s="103" t="s">
@@ -4053,7 +4099,7 @@
       </c>
       <c r="K29" s="85"/>
     </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
       <c r="B30" s="86"/>
       <c r="C30" s="98"/>
       <c r="D30" s="104"/>
@@ -4077,7 +4123,7 @@
       </c>
       <c r="K30" s="85"/>
     </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
       <c r="B31" s="86"/>
       <c r="C31" s="98"/>
       <c r="D31" s="105"/>
@@ -4101,7 +4147,7 @@
       </c>
       <c r="K31" s="85"/>
     </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
       <c r="B32" s="86"/>
       <c r="C32" s="98"/>
       <c r="D32" s="106" t="s">
@@ -4127,7 +4173,7 @@
       </c>
       <c r="K32" s="85"/>
     </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
       <c r="B33" s="86"/>
       <c r="C33" s="98"/>
       <c r="D33" s="105"/>
@@ -4151,7 +4197,7 @@
       </c>
       <c r="K33" s="85"/>
     </row>
-    <row r="34" spans="2:11" ht="39.6" customHeight="1">
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
       <c r="B34" s="86"/>
       <c r="C34" s="98"/>
       <c r="D34" s="83" t="s">
@@ -4177,7 +4223,7 @@
       </c>
       <c r="K34" s="85"/>
     </row>
-    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
       <c r="B35" s="86"/>
       <c r="C35" s="98" t="s">
         <v>48</v>
@@ -4205,7 +4251,7 @@
       </c>
       <c r="K35" s="85"/>
     </row>
-    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
       <c r="B36" s="86"/>
       <c r="C36" s="98"/>
       <c r="D36" s="83" t="s">
@@ -4231,7 +4277,7 @@
       </c>
       <c r="K36" s="85"/>
     </row>
-    <row r="37" spans="2:11" ht="56.1" customHeight="1">
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
       <c r="B37" s="86"/>
       <c r="C37" s="98"/>
       <c r="D37" s="83" t="s">
@@ -4259,7 +4305,7 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="92" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C38" s="93"/>
       <c r="D38" s="83" t="s">
@@ -4269,10 +4315,10 @@
         <v>254</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>116</v>
+        <v>311</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="H38" s="83">
         <v>2</v>
@@ -4285,7 +4331,7 @@
       </c>
       <c r="K38" s="85"/>
     </row>
-    <row r="39" spans="2:11" ht="49.5">
+    <row r="39" spans="2:11" ht="34">
       <c r="B39" s="94"/>
       <c r="C39" s="95"/>
       <c r="D39" s="83" t="s">
@@ -4295,10 +4341,10 @@
         <v>257</v>
       </c>
       <c r="F39" s="83" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -4321,10 +4367,10 @@
         <v>286</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="H40" s="3">
         <v>2</v>
@@ -4635,7 +4681,7 @@
       </c>
       <c r="K51" s="85"/>
     </row>
-    <row r="52" spans="2:11" ht="33">
+    <row r="52" spans="2:11" ht="34">
       <c r="B52" s="86"/>
       <c r="C52" s="98"/>
       <c r="D52" s="98" t="s">
@@ -4661,7 +4707,7 @@
       </c>
       <c r="K52" s="85"/>
     </row>
-    <row r="53" spans="2:11" ht="33">
+    <row r="53" spans="2:11" ht="34">
       <c r="B53" s="86"/>
       <c r="C53" s="98"/>
       <c r="D53" s="98"/>
@@ -4685,7 +4731,7 @@
       </c>
       <c r="K53" s="85"/>
     </row>
-    <row r="54" spans="2:11" ht="33">
+    <row r="54" spans="2:11" ht="34">
       <c r="B54" s="86"/>
       <c r="C54" s="98"/>
       <c r="D54" s="83" t="s">
@@ -4711,7 +4757,7 @@
       </c>
       <c r="K54" s="85"/>
     </row>
-    <row r="55" spans="2:11" ht="33">
+    <row r="55" spans="2:11" ht="34">
       <c r="B55" s="86"/>
       <c r="C55" s="98"/>
       <c r="D55" s="83" t="s">
@@ -4737,7 +4783,7 @@
       </c>
       <c r="K55" s="85"/>
     </row>
-    <row r="56" spans="2:11" ht="82.5">
+    <row r="56" spans="2:11" ht="85">
       <c r="B56" s="86"/>
       <c r="C56" s="98"/>
       <c r="D56" s="83" t="s">
@@ -4841,7 +4887,7 @@
       </c>
       <c r="K59" s="85"/>
     </row>
-    <row r="60" spans="2:11" ht="33">
+    <row r="60" spans="2:11" ht="34">
       <c r="B60" s="86"/>
       <c r="C60" s="83" t="s">
         <v>56</v>
@@ -4869,7 +4915,7 @@
       </c>
       <c r="K60" s="85"/>
     </row>
-    <row r="61" spans="2:11" ht="33">
+    <row r="61" spans="2:11" ht="34">
       <c r="B61" s="86"/>
       <c r="C61" s="98" t="s">
         <v>84</v>
@@ -4899,7 +4945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="33">
+    <row r="62" spans="2:11" ht="34">
       <c r="B62" s="86"/>
       <c r="C62" s="98"/>
       <c r="D62" s="83" t="s">
@@ -4925,7 +4971,7 @@
       </c>
       <c r="K62" s="52"/>
     </row>
-    <row r="63" spans="2:11" ht="132">
+    <row r="63" spans="2:11" ht="119">
       <c r="B63" s="86"/>
       <c r="C63" s="98"/>
       <c r="D63" s="83" t="s">
@@ -4953,7 +4999,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="33">
+    <row r="64" spans="2:11" ht="34">
       <c r="B64" s="86"/>
       <c r="C64" s="98"/>
       <c r="D64" s="83" t="s">
@@ -4979,7 +5025,7 @@
       </c>
       <c r="K64" s="85"/>
     </row>
-    <row r="65" spans="2:11" ht="99">
+    <row r="65" spans="2:11" ht="102">
       <c r="B65" s="86" t="s">
         <v>16</v>
       </c>
@@ -5009,7 +5055,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="33">
+    <row r="66" spans="2:11" ht="34">
       <c r="B66" s="86" t="s">
         <v>268</v>
       </c>
@@ -5037,7 +5083,1555 @@
       </c>
       <c r="K66" s="90"/>
     </row>
-    <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="53">
+        <v>3</v>
+      </c>
+      <c r="I67" s="64">
+        <v>44475</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="B38:C40"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C61:C64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
+  <dimension ref="B1:K67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.75" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="30">
+      <c r="B1" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="100"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="1"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
+      <c r="B13" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" thickBot="1">
+      <c r="B15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="80">
+        <v>1</v>
+      </c>
+      <c r="I16" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="78">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="79"/>
+    </row>
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="79"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
+      </c>
+      <c r="I19" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="79"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="78">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J20" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="79"/>
+    </row>
+    <row r="22" spans="2:11" ht="165" customHeight="1">
+      <c r="B22" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="79"/>
+    </row>
+    <row r="23" spans="2:11" ht="70" customHeight="1">
+      <c r="B23" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="79"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="86"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="78">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="79"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="86"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="78">
+        <v>1</v>
+      </c>
+      <c r="I25" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J25" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="86"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="78">
+        <v>1</v>
+      </c>
+      <c r="I26" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="79"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="86"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="78">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="79"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="86"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="79"/>
+    </row>
+    <row r="29" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B29" s="86"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="79"/>
+    </row>
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B32" s="86"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="79"/>
+    </row>
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
+      <c r="B33" s="86"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="78">
+        <v>1</v>
+      </c>
+      <c r="I33" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="79"/>
+    </row>
+    <row r="34" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B34" s="86"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="79"/>
+    </row>
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B35" s="86"/>
+      <c r="C35" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J35" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="79"/>
+    </row>
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
+      <c r="B36" s="86"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J36" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="2:11" ht="56.15" customHeight="1">
+      <c r="B37" s="86"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="93"/>
+      <c r="D38" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="78">
+        <v>2</v>
+      </c>
+      <c r="I38" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="2:11" ht="51">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="78">
+        <v>1</v>
+      </c>
+      <c r="I41" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="78">
+        <v>3</v>
+      </c>
+      <c r="I42" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="78">
+        <v>3</v>
+      </c>
+      <c r="I43" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="78">
+        <v>4</v>
+      </c>
+      <c r="I44" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="78">
+        <v>1</v>
+      </c>
+      <c r="I45" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="78">
+        <v>3</v>
+      </c>
+      <c r="I46" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J48" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="78">
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <v>44515</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="78">
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="79"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="86"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="78">
+        <v>2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="2:11" ht="34">
+      <c r="B52" s="86"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="2:11" ht="34">
+      <c r="B53" s="86"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J53" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="79"/>
+    </row>
+    <row r="54" spans="2:11" ht="34">
+      <c r="B54" s="86"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="79"/>
+    </row>
+    <row r="55" spans="2:11" ht="34">
+      <c r="B55" s="86"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="79"/>
+    </row>
+    <row r="56" spans="2:11" ht="85">
+      <c r="B56" s="86"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="79"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="86"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="16">
+        <v>3</v>
+      </c>
+      <c r="I57" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="79"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="86"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="78">
+        <v>3</v>
+      </c>
+      <c r="I58" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="79"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="86"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="78">
+        <v>3</v>
+      </c>
+      <c r="I59" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J59" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="79"/>
+    </row>
+    <row r="60" spans="2:11" ht="34">
+      <c r="B60" s="86"/>
+      <c r="C60" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="2:11" ht="34">
+      <c r="B61" s="86"/>
+      <c r="C61" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4</v>
+      </c>
+      <c r="I61" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J61" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="34">
+      <c r="B62" s="86"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="2:11" ht="119">
+      <c r="B63" s="86"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="34">
+      <c r="B64" s="86"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="79"/>
+    </row>
+    <row r="65" spans="2:11" ht="102">
+      <c r="B65" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
+      <c r="I65" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J65" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="34">
+      <c r="B66" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="87"/>
+      <c r="D66" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="62">
+        <v>44475</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="90"/>
+    </row>
+    <row r="67" spans="2:11" ht="301" customHeight="1" thickBot="1">
       <c r="B67" s="88"/>
       <c r="C67" s="89"/>
       <c r="D67" s="53" t="s">
@@ -5094,1554 +6688,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A63A04-B32C-4EF7-98CC-E072E813450C}">
-  <dimension ref="B1:K67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="76" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
-      <c r="B1" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
-      <c r="B2" s="43"/>
-    </row>
-    <row r="3" spans="2:11" ht="18" thickBot="1">
-      <c r="B3" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="100"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5"/>
-      <c r="G5" s="1"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B13" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B14" s="43"/>
-    </row>
-    <row r="15" spans="2:11" ht="18" thickBot="1">
-      <c r="B15" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="80">
-        <v>1</v>
-      </c>
-      <c r="I16" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="78">
-        <v>1</v>
-      </c>
-      <c r="I17" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="79"/>
-    </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J18" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="79"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="78">
-        <v>1</v>
-      </c>
-      <c r="I19" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="79"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="78">
-        <v>1</v>
-      </c>
-      <c r="I20" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J20" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="79"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="8">
-        <v>4</v>
-      </c>
-      <c r="I21" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J21" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="K21" s="79"/>
-    </row>
-    <row r="22" spans="2:11" ht="165" customHeight="1">
-      <c r="B22" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J22" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="79"/>
-    </row>
-    <row r="23" spans="2:11" ht="69.95" customHeight="1">
-      <c r="B23" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="79"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="86"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="78">
-        <v>1</v>
-      </c>
-      <c r="I24" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J24" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="79"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="86"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="78">
-        <v>1</v>
-      </c>
-      <c r="I25" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J25" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="79"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="78">
-        <v>1</v>
-      </c>
-      <c r="I26" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="79"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="86"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="78">
-        <v>1</v>
-      </c>
-      <c r="I27" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J27" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="79"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="86"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="8">
-        <v>2</v>
-      </c>
-      <c r="I28" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="79"/>
-    </row>
-    <row r="29" spans="2:11" ht="38.450000000000003" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="79"/>
-    </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="79"/>
-    </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
-      </c>
-      <c r="I31" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="79"/>
-    </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="106" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J32" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="79"/>
-    </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="78">
-        <v>1</v>
-      </c>
-      <c r="I33" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J33" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="79"/>
-    </row>
-    <row r="34" spans="2:11" ht="39.6" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2</v>
-      </c>
-      <c r="I34" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J34" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="79"/>
-    </row>
-    <row r="35" spans="2:11" ht="39.6" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J35" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="79"/>
-    </row>
-    <row r="36" spans="2:11" ht="39.6" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J36" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="79"/>
-    </row>
-    <row r="37" spans="2:11" ht="56.1" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J37" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="79"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="78">
-        <v>2</v>
-      </c>
-      <c r="I38" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J38" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="79"/>
-    </row>
-    <row r="39" spans="2:11" ht="49.5">
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J39" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="79"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="62">
-        <v>44515</v>
-      </c>
-      <c r="J40" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="79"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="F41" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="78">
-        <v>1</v>
-      </c>
-      <c r="I41" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J41" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="79"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="78">
-        <v>3</v>
-      </c>
-      <c r="I42" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J42" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="51"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="78">
-        <v>3</v>
-      </c>
-      <c r="I43" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J43" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="79"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="78">
-        <v>4</v>
-      </c>
-      <c r="I44" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="79"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H45" s="78">
-        <v>1</v>
-      </c>
-      <c r="I45" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J45" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="79"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="78" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>295</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="78">
-        <v>3</v>
-      </c>
-      <c r="I46" s="62">
-        <v>44515</v>
-      </c>
-      <c r="J46" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="79"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2</v>
-      </c>
-      <c r="I47" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J47" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K47" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="94"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3</v>
-      </c>
-      <c r="I48" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J48" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K48" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H49" s="78">
-        <v>1</v>
-      </c>
-      <c r="I49" s="62">
-        <v>44515</v>
-      </c>
-      <c r="J49" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="78">
-        <v>1</v>
-      </c>
-      <c r="I50" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J50" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="79"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="86"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="78">
-        <v>2</v>
-      </c>
-      <c r="I51" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J51" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="79"/>
-    </row>
-    <row r="52" spans="2:11" ht="33">
-      <c r="B52" s="86"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3</v>
-      </c>
-      <c r="I52" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J52" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="79"/>
-    </row>
-    <row r="53" spans="2:11" ht="33">
-      <c r="B53" s="86"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H53" s="3">
-        <v>2</v>
-      </c>
-      <c r="I53" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J53" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="79"/>
-    </row>
-    <row r="54" spans="2:11" ht="33">
-      <c r="B54" s="86"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J54" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="79"/>
-    </row>
-    <row r="55" spans="2:11" ht="33">
-      <c r="B55" s="86"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="F55" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="3">
-        <v>2</v>
-      </c>
-      <c r="I55" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J55" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" s="79"/>
-    </row>
-    <row r="56" spans="2:11" ht="82.5">
-      <c r="B56" s="86"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="E56" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2</v>
-      </c>
-      <c r="I56" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J56" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K56" s="79"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="86"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57" s="16">
-        <v>3</v>
-      </c>
-      <c r="I57" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J57" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" s="79"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="86"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="F58" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="78">
-        <v>3</v>
-      </c>
-      <c r="I58" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J58" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" s="79"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="86"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="F59" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="78">
-        <v>3</v>
-      </c>
-      <c r="I59" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J59" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K59" s="79"/>
-    </row>
-    <row r="60" spans="2:11" ht="33">
-      <c r="B60" s="86"/>
-      <c r="C60" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="F60" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2</v>
-      </c>
-      <c r="I60" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J60" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="79"/>
-    </row>
-    <row r="61" spans="2:11" ht="33">
-      <c r="B61" s="86"/>
-      <c r="C61" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4</v>
-      </c>
-      <c r="I61" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J61" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K61" s="51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="33">
-      <c r="B62" s="86"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3</v>
-      </c>
-      <c r="I62" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J62" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62" s="52"/>
-    </row>
-    <row r="63" spans="2:11" ht="132">
-      <c r="B63" s="86"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H63" s="3">
-        <v>3</v>
-      </c>
-      <c r="I63" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J63" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K63" s="52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="33">
-      <c r="B64" s="86"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="3">
-        <v>3</v>
-      </c>
-      <c r="I64" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J64" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K64" s="79"/>
-    </row>
-    <row r="65" spans="2:11" ht="99">
-      <c r="B65" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="78">
-        <v>1</v>
-      </c>
-      <c r="I65" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J65" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" s="51" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="33">
-      <c r="B66" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="F66" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3</v>
-      </c>
-      <c r="I66" s="62">
-        <v>44475</v>
-      </c>
-      <c r="J66" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" s="90"/>
-    </row>
-    <row r="67" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="H67" s="53">
-        <v>3</v>
-      </c>
-      <c r="I67" s="64">
-        <v>44475</v>
-      </c>
-      <c r="J67" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="C23:C34"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="B38:C40"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:B64"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C61:C64"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E6D5-6820-4B3F-ABEE-B157CB23A55C}">
   <dimension ref="B1:K66"/>
@@ -6650,26 +6696,26 @@
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
+    <row r="1" spans="2:11" ht="30">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
@@ -6754,7 +6800,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -6762,7 +6808,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -6847,7 +6893,7 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -6971,7 +7017,7 @@
       </c>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+    <row r="23" spans="2:11" ht="82" customHeight="1">
       <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="40" t="s">
@@ -6997,7 +7043,7 @@
       </c>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+    <row r="24" spans="2:11" ht="70" customHeight="1">
       <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
@@ -7149,7 +7195,7 @@
       </c>
       <c r="K29" s="60"/>
     </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
       <c r="B30" s="86"/>
       <c r="C30" s="98"/>
       <c r="D30" s="103" t="s">
@@ -7175,7 +7221,7 @@
       </c>
       <c r="K30" s="60"/>
     </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
       <c r="B31" s="86"/>
       <c r="C31" s="98"/>
       <c r="D31" s="104"/>
@@ -7199,7 +7245,7 @@
       </c>
       <c r="K31" s="60"/>
     </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
       <c r="B32" s="86"/>
       <c r="C32" s="98"/>
       <c r="D32" s="105"/>
@@ -7223,7 +7269,7 @@
       </c>
       <c r="K32" s="60"/>
     </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
       <c r="B33" s="86"/>
       <c r="C33" s="98"/>
       <c r="D33" s="106" t="s">
@@ -7249,7 +7295,7 @@
       </c>
       <c r="K33" s="60"/>
     </row>
-    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="34" spans="2:11" ht="38.5" customHeight="1">
       <c r="B34" s="86"/>
       <c r="C34" s="98"/>
       <c r="D34" s="105"/>
@@ -7273,7 +7319,7 @@
       </c>
       <c r="K34" s="60"/>
     </row>
-    <row r="35" spans="2:11" ht="39.6" customHeight="1">
+    <row r="35" spans="2:11" ht="39.65" customHeight="1">
       <c r="B35" s="86"/>
       <c r="C35" s="98"/>
       <c r="D35" s="76" t="s">
@@ -7299,7 +7345,7 @@
       </c>
       <c r="K35" s="60"/>
     </row>
-    <row r="36" spans="2:11" ht="39.6" customHeight="1">
+    <row r="36" spans="2:11" ht="39.65" customHeight="1">
       <c r="B36" s="86"/>
       <c r="C36" s="98" t="s">
         <v>48</v>
@@ -7327,7 +7373,7 @@
       </c>
       <c r="K36" s="60"/>
     </row>
-    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+    <row r="37" spans="2:11" ht="39.65" customHeight="1">
       <c r="B37" s="86"/>
       <c r="C37" s="98"/>
       <c r="D37" s="40" t="s">
@@ -7353,7 +7399,7 @@
       </c>
       <c r="K37" s="60"/>
     </row>
-    <row r="38" spans="2:11" ht="56.1" customHeight="1">
+    <row r="38" spans="2:11" ht="56.15" customHeight="1">
       <c r="B38" s="86"/>
       <c r="C38" s="98"/>
       <c r="D38" s="40" t="s">
@@ -7433,7 +7479,7 @@
       </c>
       <c r="K40" s="60"/>
     </row>
-    <row r="41" spans="2:11" ht="66">
+    <row r="41" spans="2:11" ht="68">
       <c r="B41" s="86"/>
       <c r="C41" s="98"/>
       <c r="D41" s="98" t="s">
@@ -7459,7 +7505,7 @@
       </c>
       <c r="K41" s="60"/>
     </row>
-    <row r="42" spans="2:11" ht="33">
+    <row r="42" spans="2:11" ht="34">
       <c r="B42" s="86"/>
       <c r="C42" s="98"/>
       <c r="D42" s="98"/>
@@ -7483,7 +7529,7 @@
       </c>
       <c r="K42" s="60"/>
     </row>
-    <row r="43" spans="2:11" ht="33">
+    <row r="43" spans="2:11" ht="34">
       <c r="B43" s="86"/>
       <c r="C43" s="98"/>
       <c r="D43" s="98"/>
@@ -7507,7 +7553,7 @@
       </c>
       <c r="K43" s="60"/>
     </row>
-    <row r="44" spans="2:11" ht="33">
+    <row r="44" spans="2:11" ht="34">
       <c r="B44" s="86"/>
       <c r="C44" s="98"/>
       <c r="D44" s="40" t="s">
@@ -7533,7 +7579,7 @@
       </c>
       <c r="K44" s="60"/>
     </row>
-    <row r="45" spans="2:11" ht="33">
+    <row r="45" spans="2:11" ht="34">
       <c r="B45" s="86"/>
       <c r="C45" s="98"/>
       <c r="D45" s="40" t="s">
@@ -7559,7 +7605,7 @@
       </c>
       <c r="K45" s="60"/>
     </row>
-    <row r="46" spans="2:11" ht="33">
+    <row r="46" spans="2:11" ht="34">
       <c r="B46" s="86"/>
       <c r="C46" s="98"/>
       <c r="D46" s="40" t="s">
@@ -7663,7 +7709,7 @@
       </c>
       <c r="K49" s="60"/>
     </row>
-    <row r="50" spans="2:11" ht="33">
+    <row r="50" spans="2:11" ht="34">
       <c r="B50" s="86"/>
       <c r="C50" s="40" t="s">
         <v>56</v>
@@ -7691,7 +7737,7 @@
       </c>
       <c r="K50" s="60"/>
     </row>
-    <row r="51" spans="2:11" ht="33">
+    <row r="51" spans="2:11" ht="34">
       <c r="B51" s="86"/>
       <c r="C51" s="98" t="s">
         <v>84</v>
@@ -7721,7 +7767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="33">
+    <row r="52" spans="2:11" ht="34">
       <c r="B52" s="86"/>
       <c r="C52" s="98"/>
       <c r="D52" s="40" t="s">
@@ -7747,7 +7793,7 @@
       </c>
       <c r="K52" s="52"/>
     </row>
-    <row r="53" spans="2:11" ht="132">
+    <row r="53" spans="2:11" ht="119">
       <c r="B53" s="86"/>
       <c r="C53" s="98"/>
       <c r="D53" s="40" t="s">
@@ -7775,7 +7821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="33">
+    <row r="54" spans="2:11" ht="34">
       <c r="B54" s="86"/>
       <c r="C54" s="98"/>
       <c r="D54" s="40" t="s">
@@ -7891,7 +7937,7 @@
       </c>
       <c r="K57" s="60"/>
     </row>
-    <row r="58" spans="2:11" ht="49.5">
+    <row r="58" spans="2:11" ht="51">
       <c r="B58" s="86"/>
       <c r="C58" s="87"/>
       <c r="D58" s="40" t="s">
@@ -8059,7 +8105,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="99">
+    <row r="64" spans="2:11" ht="102">
       <c r="B64" s="86" t="s">
         <v>16</v>
       </c>
@@ -8089,7 +8135,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="33">
+    <row r="65" spans="2:11" ht="34">
       <c r="B65" s="86" t="s">
         <v>268</v>
       </c>
@@ -8117,7 +8163,7 @@
       </c>
       <c r="K65" s="90"/>
     </row>
-    <row r="66" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+    <row r="66" spans="2:11" ht="301" customHeight="1" thickBot="1">
       <c r="B66" s="88"/>
       <c r="C66" s="89"/>
       <c r="D66" s="53" t="s">
@@ -8145,6 +8191,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B16:D21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="B39:B54"/>
     <mergeCell ref="C39:C49"/>
@@ -8157,16 +8213,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:D21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:B38"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8183,26 +8229,26 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.75" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="31.5">
+    <row r="1" spans="2:11" ht="30">
       <c r="B1" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="32.25" thickBot="1">
+    <row r="2" spans="2:11" ht="30.5" thickBot="1">
       <c r="B2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="18" thickBot="1">
@@ -8287,7 +8333,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.5" thickBot="1">
       <c r="B13" s="56" t="s">
         <v>248</v>
       </c>
@@ -8295,7 +8341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="26.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="26.15" customHeight="1" thickBot="1">
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="18" thickBot="1">
@@ -8380,7 +8426,7 @@
       </c>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="2:11" ht="42.6" customHeight="1">
+    <row r="18" spans="2:11" ht="42.65" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87"/>
@@ -8504,7 +8550,7 @@
       </c>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="2:11" ht="81.95" customHeight="1">
+    <row r="23" spans="2:11" ht="82" customHeight="1">
       <c r="B23" s="86"/>
       <c r="C23" s="87"/>
       <c r="D23" s="36" t="s">
@@ -8530,7 +8576,7 @@
       </c>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="2:11" ht="69.95" customHeight="1">
+    <row r="24" spans="2:11" ht="70" customHeight="1">
       <c r="B24" s="86" t="s">
         <v>11</v>
       </c>
@@ -8682,7 +8728,7 @@
       </c>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="30" spans="2:11" ht="38.5" customHeight="1">
       <c r="B30" s="86"/>
       <c r="C30" s="98"/>
       <c r="D30" s="98" t="s">
@@ -8708,7 +8754,7 @@
       </c>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="31" spans="2:11" ht="38.5" customHeight="1">
       <c r="B31" s="86"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
@@ -8732,7 +8778,7 @@
       </c>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="32" spans="2:11" ht="38.5" customHeight="1">
       <c r="B32" s="86"/>
       <c r="C32" s="98"/>
       <c r="D32" s="98"/>
@@ -8756,7 +8802,7 @@
       </c>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="33" spans="2:11" ht="38.5" customHeight="1">
       <c r="B33" s="86"/>
       <c r="C33" s="98"/>
       <c r="D33" s="98"/>
@@ -8780,7 +8826,7 @@
       </c>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="34" spans="2:11" ht="38.5" customHeight="1">
       <c r="B34" s="86"/>
       <c r="C34" s="98"/>
       <c r="D34" s="98"/>
@@ -8804,7 +8850,7 @@
       </c>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="35" spans="2:11" ht="38.5" customHeight="1">
       <c r="B35" s="86"/>
       <c r="C35" s="98"/>
       <c r="D35" s="98" t="s">
@@ -8830,7 +8876,7 @@
       </c>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="2:11" ht="38.450000000000003" customHeight="1">
+    <row r="36" spans="2:11" ht="38.5" customHeight="1">
       <c r="B36" s="86"/>
       <c r="C36" s="98"/>
       <c r="D36" s="98"/>
@@ -8854,7 +8900,7 @@
       </c>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="2:11" ht="39.6" customHeight="1">
+    <row r="37" spans="2:11" ht="39.65" customHeight="1">
       <c r="B37" s="86"/>
       <c r="C37" s="98"/>
       <c r="D37" s="98"/>
@@ -8878,7 +8924,7 @@
       </c>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="2:11" ht="39.6" customHeight="1">
+    <row r="38" spans="2:11" ht="39.65" customHeight="1">
       <c r="B38" s="86"/>
       <c r="C38" s="98" t="s">
         <v>48</v>
@@ -8906,7 +8952,7 @@
       </c>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="2:11" ht="39.6" customHeight="1">
+    <row r="39" spans="2:11" ht="39.65" customHeight="1">
       <c r="B39" s="86"/>
       <c r="C39" s="98"/>
       <c r="D39" s="36" t="s">
@@ -8932,7 +8978,7 @@
       </c>
       <c r="K39" s="50"/>
     </row>
-    <row r="40" spans="2:11" ht="56.1" customHeight="1">
+    <row r="40" spans="2:11" ht="56.15" customHeight="1">
       <c r="B40" s="86"/>
       <c r="C40" s="98"/>
       <c r="D40" s="36" t="s">
@@ -9012,7 +9058,7 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="2:11" ht="66">
+    <row r="43" spans="2:11" ht="68">
       <c r="B43" s="86"/>
       <c r="C43" s="98"/>
       <c r="D43" s="98" t="s">
@@ -9038,7 +9084,7 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="2:11" ht="33">
+    <row r="44" spans="2:11" ht="34">
       <c r="B44" s="86"/>
       <c r="C44" s="98"/>
       <c r="D44" s="98"/>
@@ -9062,7 +9108,7 @@
       </c>
       <c r="K44" s="50"/>
     </row>
-    <row r="45" spans="2:11" ht="33">
+    <row r="45" spans="2:11" ht="34">
       <c r="B45" s="86"/>
       <c r="C45" s="98"/>
       <c r="D45" s="98"/>
@@ -9086,7 +9132,7 @@
       </c>
       <c r="K45" s="50"/>
     </row>
-    <row r="46" spans="2:11" ht="33">
+    <row r="46" spans="2:11" ht="34">
       <c r="B46" s="86"/>
       <c r="C46" s="98"/>
       <c r="D46" s="36" t="s">
@@ -9112,7 +9158,7 @@
       </c>
       <c r="K46" s="50"/>
     </row>
-    <row r="47" spans="2:11" ht="33">
+    <row r="47" spans="2:11" ht="34">
       <c r="B47" s="86"/>
       <c r="C47" s="98"/>
       <c r="D47" s="36" t="s">
@@ -9138,7 +9184,7 @@
       </c>
       <c r="K47" s="50"/>
     </row>
-    <row r="48" spans="2:11" ht="33">
+    <row r="48" spans="2:11" ht="34">
       <c r="B48" s="86"/>
       <c r="C48" s="98"/>
       <c r="D48" s="36" t="s">
@@ -9242,7 +9288,7 @@
       </c>
       <c r="K51" s="50"/>
     </row>
-    <row r="52" spans="2:11" ht="33">
+    <row r="52" spans="2:11" ht="34">
       <c r="B52" s="86"/>
       <c r="C52" s="36" t="s">
         <v>56</v>
@@ -9270,7 +9316,7 @@
       </c>
       <c r="K52" s="50"/>
     </row>
-    <row r="53" spans="2:11" ht="33">
+    <row r="53" spans="2:11" ht="34">
       <c r="B53" s="86"/>
       <c r="C53" s="98" t="s">
         <v>84</v>
@@ -9300,7 +9346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="33">
+    <row r="54" spans="2:11" ht="34">
       <c r="B54" s="86"/>
       <c r="C54" s="98"/>
       <c r="D54" s="36" t="s">
@@ -9326,7 +9372,7 @@
       </c>
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="2:11" ht="132">
+    <row r="55" spans="2:11" ht="119">
       <c r="B55" s="86"/>
       <c r="C55" s="98"/>
       <c r="D55" s="36" t="s">
@@ -9354,7 +9400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="33">
+    <row r="56" spans="2:11" ht="34">
       <c r="B56" s="86"/>
       <c r="C56" s="98"/>
       <c r="D56" s="36" t="s">
@@ -9470,7 +9516,7 @@
       </c>
       <c r="K59" s="50"/>
     </row>
-    <row r="60" spans="2:11" ht="49.5">
+    <row r="60" spans="2:11" ht="51">
       <c r="B60" s="86"/>
       <c r="C60" s="87"/>
       <c r="D60" s="36" t="s">
@@ -9636,7 +9682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="99">
+    <row r="66" spans="2:11" ht="102">
       <c r="B66" s="86" t="s">
         <v>16</v>
       </c>
@@ -9666,7 +9712,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="33">
+    <row r="67" spans="2:11" ht="34">
       <c r="B67" s="86" t="s">
         <v>268</v>
       </c>
@@ -9694,7 +9740,7 @@
       </c>
       <c r="K67" s="90"/>
     </row>
-    <row r="68" spans="2:11" ht="300.95" customHeight="1" thickBot="1">
+    <row r="68" spans="2:11" ht="301" customHeight="1" thickBot="1">
       <c r="B68" s="88"/>
       <c r="C68" s="89"/>
       <c r="D68" s="53" t="s">
@@ -9722,16 +9768,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B41:B56"/>
@@ -9744,6 +9780,16 @@
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C38:C40"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9760,15 +9806,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="101.75" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="76" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9799,11 +9845,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
+      <c r="A3" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
       <c r="D3" s="2" t="s">
         <v>180</v>
       </c>
@@ -9819,9 +9865,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="30" t="s">
         <v>181</v>
       </c>
@@ -9836,10 +9882,10 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="42.6" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+    <row r="5" spans="1:8" ht="42.65" customHeight="1">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="30" t="s">
         <v>182</v>
       </c>
@@ -9855,9 +9901,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="30" t="s">
         <v>183</v>
       </c>
@@ -9873,9 +9919,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="30" t="s">
         <v>184</v>
       </c>
@@ -9891,9 +9937,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
@@ -9909,10 +9955,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="165" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="119"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
@@ -9930,9 +9976,9 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="81.95" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
+    <row r="10" spans="1:8" ht="82" customHeight="1">
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
@@ -9950,11 +9996,11 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="69.95" customHeight="1">
-      <c r="A11" s="119" t="s">
+    <row r="11" spans="1:8" ht="70" customHeight="1">
+      <c r="A11" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="126" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="98" t="s">
@@ -9975,8 +10021,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="119"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="98"/>
       <c r="D12" s="30" t="s">
         <v>189</v>
@@ -9993,8 +10039,8 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="119"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="98"/>
       <c r="D13" s="30" t="s">
         <v>190</v>
@@ -10011,8 +10057,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="119"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="103" t="s">
         <v>30</v>
       </c>
@@ -10031,8 +10077,8 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="119"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="104"/>
       <c r="D15" s="30" t="s">
         <v>192</v>
@@ -10049,8 +10095,8 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="119"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="104"/>
       <c r="D16" s="30" t="s">
         <v>193</v>
@@ -10066,9 +10112,9 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="117"/>
+    <row r="17" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="103" t="s">
         <v>31</v>
       </c>
@@ -10086,9 +10132,9 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="117"/>
+    <row r="18" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A18" s="129"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="104"/>
       <c r="D18" s="30" t="s">
         <v>195</v>
@@ -10104,9 +10150,9 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A19" s="129"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="104"/>
       <c r="D19" s="30" t="s">
         <v>196</v>
@@ -10122,9 +10168,9 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="117"/>
+    <row r="20" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A20" s="129"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="104"/>
       <c r="D20" s="30" t="s">
         <v>197</v>
@@ -10140,9 +10186,9 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="117"/>
+    <row r="21" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="105"/>
       <c r="D21" s="30" t="s">
         <v>198</v>
@@ -10158,9 +10204,9 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="117"/>
+    <row r="22" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A22" s="129"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="103" t="s">
         <v>39</v>
       </c>
@@ -10178,9 +10224,9 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="38.450000000000003" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="117"/>
+    <row r="23" spans="1:8" ht="38.5" customHeight="1">
+      <c r="A23" s="129"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="104"/>
       <c r="D23" s="30" t="s">
         <v>200</v>
@@ -10196,9 +10242,9 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A24" s="119"/>
-      <c r="B24" s="118"/>
+    <row r="24" spans="1:8" ht="39.65" customHeight="1">
+      <c r="A24" s="129"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="105"/>
       <c r="D24" s="30" t="s">
         <v>201</v>
@@ -10214,8 +10260,8 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A25" s="119"/>
+    <row r="25" spans="1:8" ht="39.65" customHeight="1">
+      <c r="A25" s="129"/>
       <c r="B25" s="103" t="s">
         <v>48</v>
       </c>
@@ -10236,8 +10282,8 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="39.6" customHeight="1">
-      <c r="A26" s="119"/>
+    <row r="26" spans="1:8" ht="39.65" customHeight="1">
+      <c r="A26" s="129"/>
       <c r="B26" s="104"/>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -10256,8 +10302,8 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="56.1" customHeight="1">
-      <c r="A27" s="119"/>
+    <row r="27" spans="1:8" ht="56.15" customHeight="1">
+      <c r="A27" s="129"/>
       <c r="B27" s="105"/>
       <c r="C27" s="2" t="s">
         <v>45</v>
@@ -10277,7 +10323,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="112" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="103" t="s">
@@ -10301,7 +10347,7 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="126"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="104"/>
       <c r="C29" s="104"/>
       <c r="D29" s="30" t="s">
@@ -10318,8 +10364,8 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="66">
-      <c r="A30" s="126"/>
+    <row r="30" spans="1:8" ht="68">
+      <c r="A30" s="113"/>
       <c r="B30" s="104"/>
       <c r="C30" s="103" t="s">
         <v>31</v>
@@ -10338,8 +10384,8 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="33">
-      <c r="A31" s="126"/>
+    <row r="31" spans="1:8" ht="34">
+      <c r="A31" s="113"/>
       <c r="B31" s="104"/>
       <c r="C31" s="104"/>
       <c r="D31" s="30" t="s">
@@ -10356,8 +10402,8 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="33">
-      <c r="A32" s="126"/>
+    <row r="32" spans="1:8" ht="34">
+      <c r="A32" s="113"/>
       <c r="B32" s="104"/>
       <c r="C32" s="104"/>
       <c r="D32" s="30" t="s">
@@ -10374,8 +10420,8 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="126"/>
+    <row r="33" spans="1:8" ht="34">
+      <c r="A33" s="113"/>
       <c r="B33" s="104"/>
       <c r="C33" s="2" t="s">
         <v>112</v>
@@ -10394,8 +10440,8 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="126"/>
+    <row r="34" spans="1:8" ht="34">
+      <c r="A34" s="113"/>
       <c r="B34" s="104"/>
       <c r="C34" s="2" t="s">
         <v>111</v>
@@ -10414,8 +10460,8 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="126"/>
+    <row r="35" spans="1:8" ht="34">
+      <c r="A35" s="113"/>
       <c r="B35" s="104"/>
       <c r="C35" s="4" t="s">
         <v>107</v>
@@ -10435,7 +10481,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="126"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="104"/>
       <c r="C36" s="2" t="s">
         <v>85</v>
@@ -10455,7 +10501,7 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="126"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="104"/>
       <c r="C37" s="2" t="s">
         <v>77</v>
@@ -10475,7 +10521,7 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="126"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="105"/>
       <c r="C38" s="2" t="s">
         <v>77</v>
@@ -10494,8 +10540,8 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="126"/>
+    <row r="39" spans="1:8" ht="34">
+      <c r="A39" s="113"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
@@ -10516,8 +10562,8 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="33">
-      <c r="A40" s="126"/>
+    <row r="40" spans="1:8" ht="34">
+      <c r="A40" s="113"/>
       <c r="B40" s="103" t="s">
         <v>84</v>
       </c>
@@ -10540,8 +10586,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="126"/>
+    <row r="41" spans="1:8" ht="34">
+      <c r="A41" s="113"/>
       <c r="B41" s="104"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
@@ -10560,8 +10606,8 @@
       </c>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="132">
-      <c r="A42" s="126"/>
+    <row r="42" spans="1:8" ht="119">
+      <c r="A42" s="113"/>
       <c r="B42" s="104"/>
       <c r="C42" s="2" t="s">
         <v>39</v>
@@ -10582,8 +10628,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="127"/>
+    <row r="43" spans="1:8" ht="34">
+      <c r="A43" s="114"/>
       <c r="B43" s="105"/>
       <c r="C43" s="2" t="s">
         <v>39</v>
@@ -10603,7 +10649,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="107" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -10629,7 +10675,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="122"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
@@ -10653,10 +10699,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="121"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
@@ -10674,9 +10720,9 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="49.5">
-      <c r="A47" s="122"/>
-      <c r="B47" s="123"/>
+    <row r="47" spans="1:8" ht="51">
+      <c r="A47" s="109"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
@@ -10695,7 +10741,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="107" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -10719,7 +10765,7 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="124"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="98" t="s">
         <v>68</v>
       </c>
@@ -10741,7 +10787,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="124"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="98"/>
       <c r="C50" s="2" t="s">
         <v>118</v>
@@ -10761,7 +10807,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="124"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -10783,7 +10829,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="122"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
@@ -10804,11 +10850,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="99">
-      <c r="A53" s="128" t="s">
+    <row r="53" spans="1:8" ht="102">
+      <c r="A53" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="129"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -10828,11 +10874,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="33">
-      <c r="A54" s="120" t="s">
+    <row r="54" spans="1:8" ht="34">
+      <c r="A54" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="121"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
@@ -10850,9 +10896,9 @@
       </c>
       <c r="H54" s="103"/>
     </row>
-    <row r="55" spans="1:8" ht="300.95" customHeight="1">
-      <c r="A55" s="122"/>
-      <c r="B55" s="123"/>
+    <row r="55" spans="1:8" ht="301" customHeight="1">
+      <c r="A55" s="109"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
@@ -10872,6 +10918,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A3:C8"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A54:B55"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="H54:H55"/>
@@ -10884,15 +10939,6 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A3:C8"/>
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10909,7 +10955,7 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -11066,7 +11112,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="132"/>
       <c r="B12" s="133"/>
       <c r="C12" s="20"/>
